--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16/6/2025 (Mon)</t>
+          <t>15/6/2025 (Sun)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -483,8 +483,25 @@
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16/6/2025 (Mon)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>2 9 3 2
+0 2 8 9
+8 5 2 5
+6 7 4 1</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3547 (0.34%)
+✅ iBet: 12/195 (6.15%)</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="B4" s="1" t="n"/>
@@ -496,6 +513,7 @@
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="B7" s="1" t="n"/>
@@ -571,6 +589,9 @@
     </row>
     <row r="31">
       <c r="B31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18/6/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2 1 2 1
+3 2 4 7
+0 5 6 9
+5 3 3 8</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/3416 (0.26%)
+✅ iBet: 9/188 (4.79%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -475,20 +496,20 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>16/6/2025 (Mon)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -496,16 +517,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="B5" s="1" t="n"/>
@@ -517,6 +534,7 @@
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="B8" s="1" t="n"/>
@@ -592,6 +610,9 @@
     </row>
     <row r="32">
       <c r="B32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -1,41 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bston\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADA1448-3C9B-4BD4-99D2-B30F856D292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-2370" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>4D Box</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>18/6/2025 (Wed)</t>
+  </si>
+  <si>
+    <t>2 1 2 1
+3 2 4 7
+0 5 6 9
+5 3 3 8</t>
+  </si>
+  <si>
+    <t>✅ Direct: 9/3416 (0.26%)
+✅ iBet: 9/188 (4.79%)</t>
+  </si>
+  <si>
+    <t>15/6/2025 (Sun)</t>
+  </si>
+  <si>
+    <t>2 9 3 2
+0 2 8 9
+8 5 2 5
+6 7 4 1</t>
+  </si>
+  <si>
+    <t>✅ Direct: 12/3547 (0.34%)
+✅ iBet: 12/195 (6.15%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,85 +105,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,193 +412,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>4D Box</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>18/6/2025 (Wed)</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>2 1 2 1
-3 2 4 7
-0 5 6 9
-5 3 3 8</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>✅ Direct: 9/3416 (0.26%)
-✅ iBet: 9/188 (4.79%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>15/6/2025 (Sun)</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>2 9 3 2
-0 2 8 9
-8 5 2 5
-6 7 4 1</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>✅ Direct: 12/3547 (0.34%)
-✅ iBet: 12/195 (6.15%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>16/6/2025 (Mon)</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>2 9 3 2
-0 2 8 9
-8 5 2 5
-6 7 4 1</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>✅ Direct: 12/3547 (0.34%)
-✅ iBet: 12/195 (6.15%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-    </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="B8" s="1" t="n"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="B9" s="1" t="n"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="B10" s="1" t="n"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="B11" s="1" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="B12" s="1" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="B13" s="1" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="B14" s="1" t="n"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="B15" s="1" t="n"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="B16" s="1" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="1" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="1" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="1" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="1" t="n"/>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -1,86 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bston\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADA1448-3C9B-4BD4-99D2-B30F856D292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>4D Box</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>18/6/2025 (Wed)</t>
-  </si>
-  <si>
-    <t>2 1 2 1
-3 2 4 7
-0 5 6 9
-5 3 3 8</t>
-  </si>
-  <si>
-    <t>✅ Direct: 9/3416 (0.26%)
-✅ iBet: 9/188 (4.79%)</t>
-  </si>
-  <si>
-    <t>15/6/2025 (Sun)</t>
-  </si>
-  <si>
-    <t>2 9 3 2
-0 2 8 9
-8 5 2 5
-6 7 4 1</t>
-  </si>
-  <si>
-    <t>✅ Direct: 12/3547 (0.34%)
-✅ iBet: 12/195 (6.15%)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,26 +60,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,142 +426,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col width="16" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>4D Box</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>21/6/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>4 6 1 8
+8 1 0 4
+1 5 7 7
+0 2 9 3</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 13/3814 (0.34%)
+✅ iBet: 13/208 (6.25%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>18/6/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>2 1 2 1
+3 2 4 7
+0 5 6 9
+5 3 3 8</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/3416 (0.26%)
+✅ iBet: 9/188 (4.79%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>2 9 3 2
+0 2 8 9
+8 5 2 5
+6 7 4 1</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3547 (0.34%)
+✅ iBet: 12/195 (6.15%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+    </row>
+    <row r="7" ht="60" customHeight="1">
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="B8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="B9" s="1" t="n"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="B10" s="1" t="n"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="B11" s="1" t="n"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="B12" s="1" t="n"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="B13" s="1" t="n"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="B14" s="1" t="n"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="B15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>4 1 3 7
+6 2 5 4
+0 4 2 8
+9 5 6 3</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/4144 (0.27%)
+✅ iBet: 11/222 (4.95%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -475,20 +496,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -496,20 +517,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -517,16 +538,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="B6" s="1" t="n"/>
@@ -538,6 +555,7 @@
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="B9" s="1" t="n"/>
@@ -613,6 +631,9 @@
     </row>
     <row r="33">
       <c r="B33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25/6/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2 0 5 7
+6 2 8 8
+9 1 3 0
+7 6 1 4</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/4302 (0.28%)
+✅ iBet: 12/226 (5.31%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -475,20 +496,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -496,20 +517,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -517,20 +538,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -538,16 +559,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="B7" s="1" t="n"/>
@@ -559,6 +576,7 @@
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="B10" s="1" t="n"/>
@@ -634,6 +652,9 @@
     </row>
     <row r="34">
       <c r="B34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25/6/2025 (Wed)</t>
+          <t>28/6/2025 (Sat)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -485,10 +485,31 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25/6/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>2 0 5 7
+6 2 8 8
+9 1 3 0
+7 6 1 4</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/4302 (0.28%)
+✅ iBet: 12/226 (5.31%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -496,20 +517,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -517,20 +538,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -538,20 +559,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -559,16 +580,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="B8" s="1" t="n"/>
@@ -580,6 +597,7 @@
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="B11" s="1" t="n"/>
@@ -655,6 +673,9 @@
     </row>
     <row r="35">
       <c r="B35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -469,26 +469,47 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>3 4 6 0
+4 9 3 6
+1 5 2 7
+0 0 4 8</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3980 (0.35%)
+✅ iBet: 14/215 (6.51%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>28/6/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
           <t>2 0 5 7
 6 2 8 8
 9 1 3 0
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -496,20 +517,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -517,20 +538,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -538,20 +559,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -559,20 +580,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -580,16 +601,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="B9" s="1" t="n"/>
@@ -601,6 +618,7 @@
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="B12" s="1" t="n"/>
@@ -676,6 +694,9 @@
     </row>
     <row r="36">
       <c r="B36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -490,26 +490,47 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>3 4 6 0
+4 9 3 6
+1 5 2 7
+0 0 4 8</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3980 (0.35%)
+✅ iBet: 14/215 (6.51%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>28/6/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
           <t>2 0 5 7
 6 2 8 8
 9 1 3 0
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -517,20 +538,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -538,20 +559,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -559,20 +580,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -580,20 +601,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -601,16 +622,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="B10" s="1" t="n"/>
@@ -622,6 +639,7 @@
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="B13" s="1" t="n"/>
@@ -697,6 +715,9 @@
     </row>
     <row r="37">
       <c r="B37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -1,138 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bston\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232FF45F-01A4-4A2A-996C-6304B1533694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>4D Box</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>28/6/2025 (Sat)</t>
-  </si>
-  <si>
-    <t>3 4 6 0
-4 9 3 6
-1 5 2 7
-0 0 4 8</t>
-  </si>
-  <si>
-    <t>✅ Direct: 14/3980 (0.35%)
-✅ iBet: 14/215 (6.51%)</t>
-  </si>
-  <si>
-    <t>2 0 5 7
-6 2 8 8
-9 1 3 0
-7 6 1 4</t>
-  </si>
-  <si>
-    <t>✅ Direct: 12/4302 (0.28%)
-✅ iBet: 12/226 (5.31%)</t>
-  </si>
-  <si>
-    <t>25/6/2025 (Wed)</t>
-  </si>
-  <si>
-    <t>22/6/2025 (Sun)</t>
-  </si>
-  <si>
-    <t>4 1 3 7
-6 2 5 4
-0 4 2 8
-9 5 6 3</t>
-  </si>
-  <si>
-    <t>✅ Direct: 11/4144 (0.27%)
-✅ iBet: 11/222 (4.95%)</t>
-  </si>
-  <si>
-    <t>21/6/2025 (Sat)</t>
-  </si>
-  <si>
-    <t>4 6 1 8
-8 1 0 4
-1 5 7 7
-0 2 9 3</t>
-  </si>
-  <si>
-    <t>✅ Direct: 13/3814 (0.34%)
-✅ iBet: 13/208 (6.25%)</t>
-  </si>
-  <si>
-    <t>18/6/2025 (Wed)</t>
-  </si>
-  <si>
-    <t>2 1 2 1
-3 2 4 7
-0 5 6 9
-5 3 3 8</t>
-  </si>
-  <si>
-    <t>✅ Direct: 9/3416 (0.26%)
-✅ iBet: 9/188 (4.79%)</t>
-  </si>
-  <si>
-    <t>15/6/2025 (Sun)</t>
-  </si>
-  <si>
-    <t>2 9 3 2
-0 2 8 9
-8 5 2 5
-6 7 4 1</t>
-  </si>
-  <si>
-    <t>✅ Direct: 12/3547 (0.34%)
-✅ iBet: 12/195 (6.15%)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -157,26 +60,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,186 +426,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col width="16" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>4D Box</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>29/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6 5 2 6
+4 0 7 9
+0 4 6 5
+1 3 0 8</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3980 (0.35%)
+✅ iBet: 14/215 (6.51%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>28/6/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>3 4 6 0
+4 9 3 6
+1 5 2 7
+0 0 4 8</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3980 (0.35%)
+✅ iBet: 14/215 (6.51%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>25/6/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>2 0 5 7
+6 2 8 8
+9 1 3 0
+7 6 1 4</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/4302 (0.28%)
+✅ iBet: 12/226 (5.31%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>22/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>4 1 3 7
+6 2 5 4
+0 4 2 8
+9 5 6 3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/4144 (0.27%)
+✅ iBet: 11/222 (4.95%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21/6/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>4 6 1 8
+8 1 0 4
+1 5 7 7
+0 2 9 3</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 13/3814 (0.34%)
+✅ iBet: 13/208 (6.25%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>18/6/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>2 1 2 1
+3 2 4 7
+0 5 6 9
+5 3 3 8</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/3416 (0.26%)
+✅ iBet: 9/188 (4.79%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>2 9 3 2
+0 2 8 9
+8 5 2 5
+6 7 4 1</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3547 (0.34%)
+✅ iBet: 12/195 (6.15%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="B12" s="1" t="n"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="B13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29/6/2025 (Sun)</t>
+          <t>2/7/2025 (Wed)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -485,10 +485,31 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>6 5 2 6
+4 0 7 9
+0 4 6 5
+1 3 0 8</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3980 (0.35%)
+✅ iBet: 14/215 (6.51%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -496,20 +517,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -517,20 +538,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -538,20 +559,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -559,20 +580,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -580,20 +601,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -601,16 +622,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="B10" s="1" t="n"/>
@@ -622,6 +639,7 @@
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="B13" s="1" t="n"/>
@@ -697,6 +715,9 @@
     </row>
     <row r="37">
       <c r="B37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -485,7 +485,7 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29/6/2025 (Sun)</t>
+          <t>2/7/2025 (Wed)</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -506,10 +506,31 @@
     <row r="4" ht="60" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>6 5 2 6
+4 0 7 9
+0 4 6 5
+1 3 0 8</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3980 (0.35%)
+✅ iBet: 14/215 (6.51%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -517,20 +538,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -538,20 +559,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -559,20 +580,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -580,20 +601,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -601,20 +622,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -622,16 +643,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="B11" s="1" t="n"/>
@@ -643,6 +660,7 @@
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="1" t="n"/>
@@ -718,6 +736,9 @@
     </row>
     <row r="38">
       <c r="B38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -469,26 +469,47 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>6 4 1 8
+2 5 2 6
+7 9 9 7
+5 6 3 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/4042 (0.35%)
+✅ iBet: 14/216 (6.48%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2/7/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
           <t>6 5 2 6
 4 0 7 9
 0 4 6 5
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -496,20 +517,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -517,20 +538,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -538,20 +559,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -559,20 +580,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -580,20 +601,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -601,20 +622,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -622,20 +643,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -643,16 +664,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="B12" s="1" t="n"/>
@@ -664,6 +681,7 @@
     </row>
     <row r="14">
       <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="1" t="n"/>
@@ -739,6 +757,9 @@
     </row>
     <row r="39">
       <c r="B39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -490,26 +490,47 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>6 4 1 8
+2 5 2 6
+7 9 9 7
+5 6 3 0</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/4042 (0.35%)
+✅ iBet: 14/216 (6.48%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2/7/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
           <t>6 5 2 6
 4 0 7 9
 0 4 6 5
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -517,20 +538,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -538,20 +559,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -559,20 +580,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -580,20 +601,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -601,20 +622,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -622,20 +643,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -643,20 +664,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -664,16 +685,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="B13" s="1" t="n"/>
@@ -685,6 +702,7 @@
     </row>
     <row r="15">
       <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="1" t="n"/>
@@ -760,6 +778,9 @@
     </row>
     <row r="40">
       <c r="B40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -1,147 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bston\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686F63BB-15C7-4819-AE92-C26C4F87B188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>4D Box</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>6 5 2 6
-4 0 7 9
-0 4 6 5
-1 3 0 8</t>
-  </si>
-  <si>
-    <t>✅ Direct: 14/3980 (0.35%)
-✅ iBet: 14/215 (6.51%)</t>
-  </si>
-  <si>
-    <t>29/6/2025 (Sun)</t>
-  </si>
-  <si>
-    <t>28/6/2025 (Sat)</t>
-  </si>
-  <si>
-    <t>3 4 6 0
-4 9 3 6
-1 5 2 7
-0 0 4 8</t>
-  </si>
-  <si>
-    <t>25/6/2025 (Wed)</t>
-  </si>
-  <si>
-    <t>2 0 5 7
-6 2 8 8
-9 1 3 0
-7 6 1 4</t>
-  </si>
-  <si>
-    <t>✅ Direct: 12/4302 (0.28%)
-✅ iBet: 12/226 (5.31%)</t>
-  </si>
-  <si>
-    <t>22/6/2025 (Sun)</t>
-  </si>
-  <si>
-    <t>4 1 3 7
-6 2 5 4
-0 4 2 8
-9 5 6 3</t>
-  </si>
-  <si>
-    <t>✅ Direct: 11/4144 (0.27%)
-✅ iBet: 11/222 (4.95%)</t>
-  </si>
-  <si>
-    <t>21/6/2025 (Sat)</t>
-  </si>
-  <si>
-    <t>4 6 1 8
-8 1 0 4
-1 5 7 7
-0 2 9 3</t>
-  </si>
-  <si>
-    <t>✅ Direct: 13/3814 (0.34%)
-✅ iBet: 13/208 (6.25%)</t>
-  </si>
-  <si>
-    <t>18/6/2025 (Wed)</t>
-  </si>
-  <si>
-    <t>2 1 2 1
-3 2 4 7
-0 5 6 9
-5 3 3 8</t>
-  </si>
-  <si>
-    <t>✅ Direct: 9/3416 (0.26%)
-✅ iBet: 9/188 (4.79%)</t>
-  </si>
-  <si>
-    <t>15/6/2025 (Sun)</t>
-  </si>
-  <si>
-    <t>2 9 3 2
-0 2 8 9
-8 5 2 5
-6 7 4 1</t>
-  </si>
-  <si>
-    <t>✅ Direct: 12/3547 (0.34%)
-✅ iBet: 12/195 (6.15%)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -166,26 +60,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -473,197 +426,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col width="16" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>4D Box</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2/7/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6 4 1 8
+2 5 2 6
+7 9 9 7
+5 6 3 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/4042 (0.35%)
+✅ iBet: 14/216 (6.48%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>29/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>6 5 2 6
+4 0 7 9
+0 4 6 5
+1 3 0 8</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3980 (0.35%)
+✅ iBet: 14/215 (6.51%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>28/6/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>3 4 6 0
+4 9 3 6
+1 5 2 7
+0 0 4 8</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3980 (0.35%)
+✅ iBet: 14/215 (6.51%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/6/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>2 0 5 7
+6 2 8 8
+9 1 3 0
+7 6 1 4</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/4302 (0.28%)
+✅ iBet: 12/226 (5.31%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>22/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>4 1 3 7
+6 2 5 4
+0 4 2 8
+9 5 6 3</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/4144 (0.27%)
+✅ iBet: 11/222 (4.95%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21/6/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>4 6 1 8
+8 1 0 4
+1 5 7 7
+0 2 9 3</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 13/3814 (0.34%)
+✅ iBet: 13/208 (6.25%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18/6/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>2 1 2 1
+3 2 4 7
+0 5 6 9
+5 3 3 8</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/3416 (0.26%)
+✅ iBet: 9/188 (4.79%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15/6/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>2 9 3 2
+0 2 8 9
+8 5 2 5
+6 7 4 1</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3547 (0.34%)
+✅ iBet: 12/195 (6.15%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>5/7/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>0 1 9 2
+4 6 1 9
+2 0 6 7
+3 9 8 5</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3784 (0.32%)
+✅ iBet: 12/204 (5.88%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -475,20 +496,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -496,20 +517,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -517,20 +538,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -538,20 +559,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -559,20 +580,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -580,20 +601,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -601,20 +622,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -622,16 +643,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="1" t="n"/>
@@ -643,6 +660,7 @@
     </row>
     <row r="13">
       <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="1" t="n"/>
@@ -718,6 +736,9 @@
     </row>
     <row r="38">
       <c r="B38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>6/7/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>4 4 6 4
+2 9 1 6
+1 3 9 0
+8 5 5 7</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/4144 (0.27%)
+✅ iBet: 11/222 (4.95%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -475,20 +496,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -496,20 +517,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -517,20 +538,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -538,20 +559,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -559,20 +580,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -580,20 +601,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -601,20 +622,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -622,20 +643,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -643,16 +664,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="1" t="n"/>
@@ -664,6 +681,7 @@
     </row>
     <row r="14">
       <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="1" t="n"/>
@@ -739,6 +757,9 @@
     </row>
     <row r="39">
       <c r="B39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>9/7/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>8 7 7 5
+1 3 8 6
+5 1 6 4
+6 9 2 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/4042 (0.22%)
+✅ iBet: 9/216 (4.17%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -475,20 +496,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -496,20 +517,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -517,20 +538,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -538,20 +559,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -559,20 +580,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -580,20 +601,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -601,20 +622,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -622,20 +643,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -643,20 +664,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -664,16 +685,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="1" t="n"/>
@@ -685,6 +702,7 @@
     </row>
     <row r="15">
       <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="1" t="n"/>
@@ -760,6 +778,9 @@
     </row>
     <row r="40">
       <c r="B40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12/7/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1 0 8 9
+3 2 3 6
+2 7 9 4
+5 6 7 2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/4240 (0.24%)
+✅ iBet: 10/225 (4.44%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -475,20 +496,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -496,20 +517,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -517,20 +538,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -538,20 +559,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -559,20 +580,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -580,20 +601,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -601,20 +622,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -622,20 +643,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -643,20 +664,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -664,20 +685,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -685,16 +706,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="1" t="n"/>
@@ -706,6 +723,7 @@
     </row>
     <row r="16">
       <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="1" t="n"/>
@@ -781,6 +799,9 @@
     </row>
     <row r="41">
       <c r="B41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13/7/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1 7 1 9
+4 5 9 0
+0 4 8 4
+8 6 3 2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3814 (0.31%)
+✅ iBet: 12/208 (5.77%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -475,20 +496,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -496,20 +517,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -517,20 +538,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -538,20 +559,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -559,20 +580,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -580,20 +601,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -601,20 +622,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -622,20 +643,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -643,20 +664,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -664,20 +685,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -685,20 +706,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -706,16 +727,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="1" t="n"/>
@@ -727,6 +744,7 @@
     </row>
     <row r="17">
       <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="1" t="n"/>
@@ -802,6 +820,9 @@
     </row>
     <row r="42">
       <c r="B42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16/7/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>9 1 1 2
+0 3 5 0
+3 7 0 6
+5 6 8 4</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/4240 (0.28%)
+✅ iBet: 12/225 (5.33%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -475,20 +496,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -496,20 +517,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -517,20 +538,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -538,20 +559,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -559,20 +580,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -580,20 +601,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -601,20 +622,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -622,20 +643,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -643,20 +664,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -664,20 +685,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -685,20 +706,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -706,20 +727,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -727,16 +748,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="1" t="n"/>
@@ -748,6 +765,7 @@
     </row>
     <row r="18">
       <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="1" t="n"/>
@@ -823,6 +841,9 @@
     </row>
     <row r="43">
       <c r="B43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19/7/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>4 6 6 2
+9 8 4 3
+1 7 7 0
+3 0 8 5</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/3828 (0.29%)
+✅ iBet: 11/205 (5.37%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -475,20 +496,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -496,20 +517,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -517,20 +538,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -538,20 +559,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -559,20 +580,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -580,20 +601,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -601,20 +622,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -622,20 +643,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -643,20 +664,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -664,20 +685,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -685,20 +706,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -706,20 +727,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -727,20 +748,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -748,16 +769,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="1" t="n"/>
@@ -769,6 +786,7 @@
     </row>
     <row r="19">
       <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="1" t="n"/>
@@ -844,6 +862,9 @@
     </row>
     <row r="44">
       <c r="B44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20/7/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2 8 1 9
+9 9 8 4
+7 6 7 5
+4 3 0 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/4132 (0.34%)
+✅ iBet: 14/219 (6.39%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -475,20 +496,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -496,20 +517,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -517,20 +538,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -538,20 +559,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -559,20 +580,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -580,20 +601,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -601,20 +622,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -622,20 +643,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -643,20 +664,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -664,20 +685,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -685,20 +706,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -706,20 +727,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -727,20 +748,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -748,20 +769,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -769,16 +790,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="1" t="n"/>
@@ -790,6 +807,7 @@
     </row>
     <row r="20">
       <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="1" t="n"/>
@@ -865,6 +883,9 @@
     </row>
     <row r="45">
       <c r="B45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23/7/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1 1 5 9
+5 5 4 3
+4 9 0 8
+9 2 7 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/3464 (0.29%)
+✅ iBet: 10/192 (5.21%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -475,20 +496,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -496,20 +517,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -517,20 +538,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -538,20 +559,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -559,20 +580,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -580,20 +601,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -601,20 +622,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -622,20 +643,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -643,20 +664,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -664,20 +685,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -685,20 +706,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -706,20 +727,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -727,20 +748,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -748,20 +769,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -769,20 +790,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -790,16 +811,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="1" t="n"/>
@@ -811,6 +828,7 @@
     </row>
     <row r="21">
       <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="1" t="n"/>
@@ -886,6 +904,9 @@
     </row>
     <row r="46">
       <c r="B46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26/7/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>0 3 7 4
+3 9 3 9
+5 0 0 3
+2 8 1 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3635 (0.39%)
+✅ iBet: 14/201 (6.97%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -475,20 +496,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -496,20 +517,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -517,20 +538,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -538,20 +559,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -559,20 +580,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -580,20 +601,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -601,20 +622,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -622,20 +643,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -643,20 +664,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -664,20 +685,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -685,20 +706,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -706,20 +727,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -727,20 +748,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -748,20 +769,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -769,20 +790,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -790,20 +811,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -811,16 +832,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="1" t="n"/>
@@ -832,6 +849,7 @@
     </row>
     <row r="22">
       <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="1" t="n"/>
@@ -907,6 +925,9 @@
     </row>
     <row r="47">
       <c r="B47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27/7/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>0 7 8 8
+4 6 0 6
+7 9 9 7
+3 2 5 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 15/4240 (0.35%)
+✅ iBet: 15/225 (6.67%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -475,20 +496,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -496,20 +517,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -517,20 +538,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -538,20 +559,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -559,20 +580,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -580,20 +601,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -601,20 +622,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -622,20 +643,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -643,20 +664,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -664,20 +685,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -685,20 +706,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -706,20 +727,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -727,20 +748,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -748,20 +769,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -769,20 +790,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -790,20 +811,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -811,20 +832,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -832,16 +853,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="1" t="n"/>
@@ -853,6 +870,7 @@
     </row>
     <row r="23">
       <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="1" t="n"/>
@@ -928,6 +946,9 @@
     </row>
     <row r="48">
       <c r="B48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/7/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2 1 2 4
+1 8 1 1
+3 7 4 9
+4 5 6 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/3353 (0.27%)
+✅ iBet: 9/188 (4.79%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -475,20 +496,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -496,20 +517,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -517,20 +538,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -538,20 +559,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -559,20 +580,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -580,20 +601,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -601,20 +622,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -622,20 +643,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -643,20 +664,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -664,20 +685,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -685,20 +706,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -706,20 +727,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -727,20 +748,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -748,20 +769,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -769,20 +790,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -790,20 +811,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -811,20 +832,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -832,20 +853,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -853,16 +874,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="1" t="n"/>
@@ -874,6 +891,7 @@
     </row>
     <row r="24">
       <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="1" t="n"/>
@@ -949,6 +967,9 @@
     </row>
     <row r="49">
       <c r="B49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2/8/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>5 8 3 2
+8 3 8 4
+9 0 5 3
+1 4 7 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 13/3872 (0.34%)
+✅ iBet: 13/209 (6.22%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -475,20 +496,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -496,20 +517,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -517,20 +538,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -538,20 +559,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -559,20 +580,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -580,20 +601,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -601,20 +622,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -622,20 +643,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -643,20 +664,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -664,20 +685,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -685,20 +706,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -706,20 +727,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -727,20 +748,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -748,20 +769,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -769,20 +790,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -790,20 +811,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -811,20 +832,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -832,20 +853,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -853,20 +874,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -874,16 +895,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="1" t="n"/>
@@ -895,6 +912,7 @@
     </row>
     <row r="25">
       <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="1" t="n"/>
@@ -970,6 +988,9 @@
     </row>
     <row r="50">
       <c r="B50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>3/8/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>9 3 2 2
+7 9 8 8
+3 5 5 1
+6 8 4 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3904 (0.31%)
+✅ iBet: 12/209 (5.74%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -475,20 +496,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -496,20 +517,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -517,20 +538,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -538,20 +559,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -559,20 +580,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -580,20 +601,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -601,20 +622,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -622,20 +643,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -643,20 +664,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -664,20 +685,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -685,20 +706,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -706,20 +727,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -727,20 +748,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -748,20 +769,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -769,20 +790,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -790,20 +811,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -811,20 +832,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -832,20 +853,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -853,20 +874,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -874,20 +895,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -895,16 +916,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="1" t="n"/>
@@ -916,6 +933,7 @@
     </row>
     <row r="26">
       <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="1" t="n"/>
@@ -991,6 +1009,9 @@
     </row>
     <row r="51">
       <c r="B51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>6/8/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>3 7 9 2
+2 5 3 1
+9 6 0 4
+5 1 5 8</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/3784 (0.29%)
+✅ iBet: 11/204 (5.39%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -475,20 +496,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -496,20 +517,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -517,20 +538,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -538,20 +559,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -559,20 +580,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -580,20 +601,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -601,20 +622,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -622,20 +643,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -643,20 +664,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -664,20 +685,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -685,20 +706,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -706,20 +727,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -727,20 +748,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -748,20 +769,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -769,20 +790,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -790,20 +811,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -811,20 +832,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -832,20 +853,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -853,20 +874,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -874,20 +895,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -895,20 +916,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -916,16 +937,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="1" t="n"/>
@@ -937,6 +954,7 @@
     </row>
     <row r="27">
       <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="1" t="n"/>
@@ -1012,6 +1030,9 @@
     </row>
     <row r="52">
       <c r="B52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>9/8/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1 6 8 1
+3 0 5 7
+7 2 3 8
+8 8 9 4</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/3427 (0.26%)
+✅ iBet: 9/192 (4.69%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -475,20 +496,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -496,20 +517,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -517,20 +538,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -538,20 +559,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -559,20 +580,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -580,20 +601,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -601,20 +622,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -622,20 +643,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -643,20 +664,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -664,20 +685,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -685,20 +706,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -706,20 +727,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -727,20 +748,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -748,20 +769,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -769,20 +790,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -790,20 +811,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -811,20 +832,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -832,20 +853,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -853,20 +874,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -874,20 +895,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -895,20 +916,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -916,20 +937,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -937,16 +958,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="1" t="n"/>
@@ -958,6 +975,7 @@
     </row>
     <row r="28">
       <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="1" t="n"/>
@@ -1033,6 +1051,9 @@
     </row>
     <row r="53">
       <c r="B53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10/8/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6 9 6 7
+5 4 5 2
+8 3 7 9
+9 0 9 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/3427 (0.32%)
+✅ iBet: 11/192 (5.73%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -475,20 +496,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -496,20 +517,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -517,20 +538,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -538,20 +559,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -559,20 +580,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -580,20 +601,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -601,20 +622,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -622,20 +643,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -643,20 +664,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -664,20 +685,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -685,20 +706,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -706,20 +727,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -727,20 +748,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -748,20 +769,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -769,20 +790,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -790,20 +811,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -811,20 +832,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -832,20 +853,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -853,20 +874,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -874,20 +895,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -895,20 +916,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -916,20 +937,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -937,20 +958,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -958,16 +979,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="1" t="n"/>
@@ -979,6 +996,7 @@
     </row>
     <row r="29">
       <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n"/>
@@ -1054,6 +1072,9 @@
     </row>
     <row r="54">
       <c r="B54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13/8/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>3 7 7 7
+0 9 9 0
+2 5 8 3
+5 1 6 4</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/4078 (0.34%)
+✅ iBet: 14/217 (6.45%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -475,20 +496,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -496,20 +517,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -517,20 +538,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -538,20 +559,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -559,20 +580,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -580,20 +601,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -601,20 +622,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -622,20 +643,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -643,20 +664,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -664,20 +685,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -685,20 +706,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -706,20 +727,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -727,20 +748,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -748,20 +769,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -769,20 +790,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -790,20 +811,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -811,20 +832,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -832,20 +853,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -853,20 +874,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -874,20 +895,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -895,20 +916,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -916,20 +937,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -937,20 +958,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -958,20 +979,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -979,16 +1000,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="1" t="n"/>
@@ -1000,6 +1017,7 @@
     </row>
     <row r="30">
       <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n"/>
@@ -1075,6 +1093,9 @@
     </row>
     <row r="55">
       <c r="B55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16/8/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>5 2 6 5
+2 6 4 4
+4 4 9 0
+7 3 1 8</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3841 (0.31%)
+✅ iBet: 12/209 (5.74%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -475,20 +496,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -496,20 +517,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -517,20 +538,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -538,20 +559,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -559,20 +580,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -580,20 +601,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -601,20 +622,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -622,20 +643,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -643,20 +664,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -664,20 +685,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -685,20 +706,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -706,20 +727,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -727,20 +748,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -748,20 +769,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -769,20 +790,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -790,20 +811,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -811,20 +832,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -832,20 +853,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -853,20 +874,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -874,20 +895,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -895,20 +916,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -916,20 +937,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -937,20 +958,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -958,20 +979,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -979,20 +1000,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1000,16 +1021,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="1" t="n"/>
@@ -1021,6 +1038,7 @@
     </row>
     <row r="31">
       <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="1" t="n"/>
@@ -1096,6 +1114,9 @@
     </row>
     <row r="56">
       <c r="B56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17/8/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>4 4 2 6
+5 7 0 7
+2 0 4 1
+3 5 9 8</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3784 (0.32%)
+✅ iBet: 12/204 (5.88%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -475,20 +496,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -496,20 +517,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -517,20 +538,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -538,20 +559,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -559,20 +580,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -580,20 +601,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -601,20 +622,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -622,20 +643,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -643,20 +664,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -664,20 +685,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -685,20 +706,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -706,20 +727,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -727,20 +748,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -748,20 +769,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -769,20 +790,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -790,20 +811,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -811,20 +832,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -832,20 +853,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -853,20 +874,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -874,20 +895,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -895,20 +916,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -916,20 +937,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -937,20 +958,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -958,20 +979,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -979,20 +1000,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1000,20 +1021,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1021,16 +1042,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n"/>
@@ -1042,6 +1059,7 @@
     </row>
     <row r="32">
       <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="1" t="n"/>
@@ -1117,6 +1135,9 @@
     </row>
     <row r="57">
       <c r="B57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20/8/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>8 3 1 3
+3 2 3 2
+4 4 7 5
+6 1 0 9</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 13/3799 (0.34%)
+✅ iBet: 13/208 (6.25%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -475,20 +496,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -496,20 +517,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -517,20 +538,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -538,20 +559,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -559,20 +580,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -580,20 +601,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -601,20 +622,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -622,20 +643,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -643,20 +664,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -664,20 +685,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -685,20 +706,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -706,20 +727,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -727,20 +748,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -748,20 +769,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -769,20 +790,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -790,20 +811,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -811,20 +832,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -832,20 +853,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -853,20 +874,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -874,20 +895,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -895,20 +916,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -916,20 +937,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -937,20 +958,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -958,20 +979,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -979,20 +1000,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1000,20 +1021,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1021,20 +1042,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1042,16 +1063,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n"/>
@@ -1063,6 +1080,7 @@
     </row>
     <row r="33">
       <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="1" t="n"/>
@@ -1138,6 +1156,9 @@
     </row>
     <row r="58">
       <c r="B58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23/8/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2 3 5 0
+0 2 2 6
+4 7 6 5
+5 1 9 8</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 13/3734 (0.35%)
+✅ iBet: 13/204 (6.37%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -475,20 +496,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -496,20 +517,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -517,20 +538,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -538,20 +559,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -559,20 +580,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -580,20 +601,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -601,20 +622,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -622,20 +643,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -643,20 +664,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -664,20 +685,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -685,20 +706,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -706,20 +727,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -727,20 +748,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -748,20 +769,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -769,20 +790,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -790,20 +811,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -811,20 +832,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -832,20 +853,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -853,20 +874,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -874,20 +895,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -895,20 +916,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -916,20 +937,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -937,20 +958,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -958,20 +979,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -979,20 +1000,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1000,20 +1021,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1021,20 +1042,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1042,20 +1063,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1063,16 +1084,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="1" t="n"/>
@@ -1084,6 +1101,7 @@
     </row>
     <row r="34">
       <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="1" t="n"/>
@@ -1159,6 +1177,9 @@
     </row>
     <row r="59">
       <c r="B59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24/8/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6 1 2 7
+9 6 9 3
+8 4 1 8
+3 9 5 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 13/3904 (0.33%)
+✅ iBet: 13/209 (6.22%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -475,20 +496,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -496,20 +517,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -517,20 +538,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -538,20 +559,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -559,20 +580,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -580,20 +601,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -601,20 +622,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -622,20 +643,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -643,20 +664,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -664,20 +685,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -685,20 +706,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -706,20 +727,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -727,20 +748,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -748,20 +769,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -769,20 +790,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -790,20 +811,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -811,20 +832,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -832,20 +853,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -853,20 +874,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -874,20 +895,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -895,20 +916,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -916,20 +937,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -937,20 +958,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -958,20 +979,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -979,20 +1000,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1000,20 +1021,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1021,20 +1042,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1042,20 +1063,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1063,20 +1084,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1084,16 +1105,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="1" t="n"/>
@@ -1105,6 +1122,7 @@
     </row>
     <row r="35">
       <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="1" t="n"/>
@@ -1180,6 +1198,9 @@
     </row>
     <row r="60">
       <c r="B60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27/8/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6 0 6 5
+3 6 0 1
+4 5 7 7
+8 8 2 9</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/4042 (0.27%)
+✅ iBet: 11/216 (5.09%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -475,20 +496,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -496,20 +517,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -517,20 +538,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -538,20 +559,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -559,20 +580,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -580,20 +601,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -601,20 +622,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -622,20 +643,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -643,20 +664,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -664,20 +685,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -685,20 +706,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -706,20 +727,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -727,20 +748,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -748,20 +769,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -769,20 +790,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -790,20 +811,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -811,20 +832,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -832,20 +853,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -853,20 +874,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -874,20 +895,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -895,20 +916,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -916,20 +937,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -937,20 +958,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -958,20 +979,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -979,20 +1000,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1000,20 +1021,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1021,20 +1042,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1042,20 +1063,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1063,20 +1084,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1084,20 +1105,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1105,16 +1126,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="1" t="n"/>
@@ -1126,6 +1143,7 @@
     </row>
     <row r="36">
       <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="1" t="n"/>
@@ -1201,6 +1219,9 @@
     </row>
     <row r="61">
       <c r="B61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/8/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>9 8 6 8
+5 5 2 4
+6 4 1 3
+7 9 9 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3904 (0.36%)
+✅ iBet: 14/209 (6.70%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -475,20 +496,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -496,20 +517,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -517,20 +538,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -538,20 +559,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -559,20 +580,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -580,20 +601,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -601,20 +622,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -622,20 +643,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -643,20 +664,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -664,20 +685,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -685,20 +706,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -706,20 +727,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -727,20 +748,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -748,20 +769,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -769,20 +790,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -790,20 +811,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -811,20 +832,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -832,20 +853,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -853,20 +874,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -874,20 +895,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -895,20 +916,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -916,20 +937,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -937,20 +958,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -958,20 +979,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -979,20 +1000,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1000,20 +1021,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1021,20 +1042,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1042,20 +1063,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1063,20 +1084,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1084,20 +1105,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1105,20 +1126,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1126,16 +1147,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="1" t="n"/>
@@ -1147,6 +1164,7 @@
     </row>
     <row r="37">
       <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
     </row>
     <row r="38">
       <c r="B38" s="1" t="n"/>
@@ -1222,6 +1240,9 @@
     </row>
     <row r="62">
       <c r="B62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>31/8/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>0 0 0 7
+3 2 7 4
+4 8 5 8
+1 1 6 9</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/4240 (0.28%)
+✅ iBet: 12/225 (5.33%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -475,20 +496,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -496,20 +517,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -517,20 +538,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -538,20 +559,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -559,20 +580,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -580,20 +601,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -601,20 +622,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -622,20 +643,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -643,20 +664,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -664,20 +685,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -685,20 +706,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -706,20 +727,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -727,20 +748,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -748,20 +769,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -769,20 +790,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -790,20 +811,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -811,20 +832,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -832,20 +853,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -853,20 +874,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -874,20 +895,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -895,20 +916,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -916,20 +937,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -937,20 +958,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -958,20 +979,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -979,20 +1000,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1000,20 +1021,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1021,20 +1042,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1042,20 +1063,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1063,20 +1084,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1084,20 +1105,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1105,20 +1126,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1126,20 +1147,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1147,16 +1168,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="1" t="n"/>
@@ -1168,6 +1185,7 @@
     </row>
     <row r="38">
       <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
     </row>
     <row r="39">
       <c r="B39" s="1" t="n"/>
@@ -1243,6 +1261,9 @@
     </row>
     <row r="63">
       <c r="B63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>3/9/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>5 9 8 1
+0 4 1 0
+1 0 3 3
+4 7 6 2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3872 (0.31%)
+✅ iBet: 12/209 (5.74%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -475,20 +496,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -496,20 +517,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -517,20 +538,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -538,20 +559,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -559,20 +580,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -580,20 +601,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -601,20 +622,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -622,20 +643,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -643,20 +664,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -664,20 +685,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -685,20 +706,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -706,20 +727,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -727,20 +748,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -748,20 +769,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -769,20 +790,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -790,20 +811,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -811,20 +832,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -832,20 +853,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -853,20 +874,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -874,20 +895,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -895,20 +916,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -916,20 +937,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -937,20 +958,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -958,20 +979,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -979,20 +1000,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1000,20 +1021,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1021,20 +1042,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1042,20 +1063,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1063,20 +1084,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1084,20 +1105,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1105,20 +1126,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1126,20 +1147,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1147,20 +1168,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1168,16 +1189,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="1" t="n"/>
@@ -1189,6 +1206,7 @@
     </row>
     <row r="39">
       <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
     </row>
     <row r="40">
       <c r="B40" s="1" t="n"/>
@@ -1264,6 +1282,9 @@
     </row>
     <row r="64">
       <c r="B64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>6/9/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>9 9 4 5
+0 2 1 7
+1 1 5 1
+3 4 8 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/3841 (0.23%)
+✅ iBet: 9/209 (4.31%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -475,20 +496,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -496,20 +517,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -517,20 +538,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -538,20 +559,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -559,20 +580,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -580,20 +601,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -601,20 +622,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -622,20 +643,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -643,20 +664,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -664,20 +685,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -685,20 +706,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -706,20 +727,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -727,20 +748,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -748,20 +769,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -769,20 +790,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -790,20 +811,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -811,20 +832,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -832,20 +853,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -853,20 +874,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -874,20 +895,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -895,20 +916,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -916,20 +937,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -937,20 +958,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -958,20 +979,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -979,20 +1000,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1000,20 +1021,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1021,20 +1042,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1042,20 +1063,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1063,20 +1084,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1084,20 +1105,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1105,20 +1126,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1126,20 +1147,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1147,20 +1168,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1168,20 +1189,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1189,16 +1210,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
     </row>
     <row r="38">
       <c r="B38" s="1" t="n"/>
@@ -1210,6 +1227,7 @@
     </row>
     <row r="40">
       <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="1" t="n"/>
@@ -1285,6 +1303,9 @@
     </row>
     <row r="65">
       <c r="B65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>7/9/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>7 3 3 6
+3 0 6 5
+2 1 5 2
+4 6 9 8</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3980 (0.35%)
+✅ iBet: 14/215 (6.51%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -475,20 +496,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -496,20 +517,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -517,20 +538,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -538,20 +559,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -559,20 +580,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -580,20 +601,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -601,20 +622,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -622,20 +643,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -643,20 +664,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -664,20 +685,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -685,20 +706,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -706,20 +727,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -727,20 +748,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -748,20 +769,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -769,20 +790,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -790,20 +811,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -811,20 +832,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -832,20 +853,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -853,20 +874,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -874,20 +895,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -895,20 +916,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -916,20 +937,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -937,20 +958,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -958,20 +979,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -979,20 +1000,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1000,20 +1021,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1021,20 +1042,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1042,20 +1063,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1063,20 +1084,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1084,20 +1105,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1105,20 +1126,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1126,20 +1147,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1147,20 +1168,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1168,20 +1189,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1189,20 +1210,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1210,16 +1231,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
     </row>
     <row r="39">
       <c r="B39" s="1" t="n"/>
@@ -1231,6 +1248,7 @@
     </row>
     <row r="41">
       <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="1" t="n"/>
@@ -1306,6 +1324,9 @@
     </row>
     <row r="66">
       <c r="B66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10/9/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>7 4 8 1
+9 2 1 8
+2 5 2 6
+0 9 0 3</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/3904 (0.26%)
+✅ iBet: 10/209 (4.78%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -475,20 +496,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -496,20 +517,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -517,20 +538,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -538,20 +559,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -559,20 +580,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -580,20 +601,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -601,20 +622,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -622,20 +643,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -643,20 +664,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -664,20 +685,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -685,20 +706,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -706,20 +727,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -727,20 +748,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -748,20 +769,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -769,20 +790,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -790,20 +811,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -811,20 +832,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -832,20 +853,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -853,20 +874,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -874,20 +895,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -895,20 +916,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -916,20 +937,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -937,20 +958,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -958,20 +979,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -979,20 +1000,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1000,20 +1021,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1021,20 +1042,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1042,20 +1063,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1063,20 +1084,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1084,20 +1105,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1105,20 +1126,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1126,20 +1147,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1147,20 +1168,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1168,20 +1189,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1189,20 +1210,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1210,20 +1231,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1231,16 +1252,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
     </row>
     <row r="40">
       <c r="B40" s="1" t="n"/>
@@ -1252,6 +1269,7 @@
     </row>
     <row r="42">
       <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
     </row>
     <row r="43">
       <c r="B43" s="1" t="n"/>
@@ -1327,6 +1345,9 @@
     </row>
     <row r="67">
       <c r="B67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13/9/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1 2 2 6
+3 6 5 1
+2 7 9 8
+7 3 4 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/3544 (0.28%)
+✅ iBet: 10/196 (5.10%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -475,20 +496,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -496,20 +517,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -517,20 +538,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -538,20 +559,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -559,20 +580,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -580,20 +601,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -601,20 +622,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -622,20 +643,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -643,20 +664,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -664,20 +685,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -685,20 +706,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -706,20 +727,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -727,20 +748,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -748,20 +769,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -769,20 +790,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -790,20 +811,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -811,20 +832,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -832,20 +853,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -853,20 +874,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -874,20 +895,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -895,20 +916,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -916,20 +937,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -937,20 +958,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -958,20 +979,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -979,20 +1000,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1000,20 +1021,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1021,20 +1042,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1042,20 +1063,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1063,20 +1084,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1084,20 +1105,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1105,20 +1126,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1126,20 +1147,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1147,20 +1168,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1168,20 +1189,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1189,20 +1210,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1210,20 +1231,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1231,20 +1252,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1252,16 +1273,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="1" t="n"/>
@@ -1273,6 +1290,7 @@
     </row>
     <row r="43">
       <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
     </row>
     <row r="44">
       <c r="B44" s="1" t="n"/>
@@ -1348,6 +1366,9 @@
     </row>
     <row r="68">
       <c r="B68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14/9/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>5 4 1 4
+8 0 8 5
+7 8 9 1
+3 6 2 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 15/4144 (0.36%)
+✅ iBet: 15/222 (6.76%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -475,20 +496,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -496,20 +517,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -517,20 +538,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -538,20 +559,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -559,20 +580,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -580,20 +601,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -601,20 +622,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -622,20 +643,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -643,20 +664,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -664,20 +685,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -685,20 +706,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -706,20 +727,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -727,20 +748,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -748,20 +769,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -769,20 +790,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -790,20 +811,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -811,20 +832,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -832,20 +853,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -853,20 +874,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -874,20 +895,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -895,20 +916,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -916,20 +937,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -937,20 +958,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -958,20 +979,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -979,20 +1000,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1000,20 +1021,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1021,20 +1042,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1042,20 +1063,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1063,20 +1084,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1084,20 +1105,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1105,20 +1126,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1126,20 +1147,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1147,20 +1168,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1168,20 +1189,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1189,20 +1210,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1210,20 +1231,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1231,20 +1252,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1252,20 +1273,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1273,16 +1294,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="1" t="n"/>
@@ -1294,6 +1311,7 @@
     </row>
     <row r="44">
       <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
     </row>
     <row r="45">
       <c r="B45" s="1" t="n"/>
@@ -1369,6 +1387,9 @@
     </row>
     <row r="69">
       <c r="B69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17/9/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>3 7 4 7
+0 2 1 8
+8 0 8 3
+6 1 9 5</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/4240 (0.24%)
+✅ iBet: 10/225 (4.44%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -475,20 +496,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -496,20 +517,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -517,20 +538,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -538,20 +559,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -559,20 +580,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -580,20 +601,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -601,20 +622,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -622,20 +643,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -643,20 +664,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -664,20 +685,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -685,20 +706,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -706,20 +727,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -727,20 +748,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -748,20 +769,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -769,20 +790,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -790,20 +811,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -811,20 +832,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -832,20 +853,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -853,20 +874,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -874,20 +895,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -895,20 +916,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -916,20 +937,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -937,20 +958,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -958,20 +979,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -979,20 +1000,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1000,20 +1021,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1021,20 +1042,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1042,20 +1063,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1063,20 +1084,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1084,20 +1105,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1105,20 +1126,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1126,20 +1147,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1147,20 +1168,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1168,20 +1189,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1189,20 +1210,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1210,20 +1231,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1231,20 +1252,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1252,20 +1273,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1273,20 +1294,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1294,16 +1315,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
     </row>
     <row r="43">
       <c r="B43" s="1" t="n"/>
@@ -1315,6 +1332,7 @@
     </row>
     <row r="45">
       <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
     </row>
     <row r="46">
       <c r="B46" s="1" t="n"/>
@@ -1390,6 +1408,9 @@
     </row>
     <row r="70">
       <c r="B70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20/9/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>7 6 3 3
+0 9 7 0
+8 7 2 7
+5 8 4 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/3841 (0.36%)
+✅ iBet: 14/209 (6.70%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -475,20 +496,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -496,20 +517,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -517,20 +538,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -538,20 +559,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -559,20 +580,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -580,20 +601,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -601,20 +622,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -622,20 +643,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -643,20 +664,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -664,20 +685,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -685,20 +706,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -706,20 +727,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -727,20 +748,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -748,20 +769,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -769,20 +790,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -790,20 +811,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -811,20 +832,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -832,20 +853,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -853,20 +874,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -874,20 +895,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -895,20 +916,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -916,20 +937,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -937,20 +958,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -958,20 +979,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -979,20 +1000,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1000,20 +1021,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1021,20 +1042,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1042,20 +1063,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1063,20 +1084,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1084,20 +1105,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1105,20 +1126,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1126,20 +1147,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1147,20 +1168,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1168,20 +1189,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1189,20 +1210,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1210,20 +1231,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1231,20 +1252,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1252,20 +1273,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1273,20 +1294,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1294,20 +1315,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1315,16 +1336,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
     </row>
     <row r="44">
       <c r="B44" s="1" t="n"/>
@@ -1336,6 +1353,7 @@
     </row>
     <row r="46">
       <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
     </row>
     <row r="47">
       <c r="B47" s="1" t="n"/>
@@ -1411,6 +1429,9 @@
     </row>
     <row r="71">
       <c r="B71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21/9/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6 7 2 5
+4 8 3 3
+3 5 8 4
+8 9 1 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/3980 (0.23%)
+✅ iBet: 9/215 (4.19%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -475,20 +496,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -496,20 +517,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -517,20 +538,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -538,20 +559,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -559,20 +580,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -580,20 +601,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -601,20 +622,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -622,20 +643,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -643,20 +664,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -664,20 +685,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -685,20 +706,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -706,20 +727,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -727,20 +748,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -748,20 +769,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -769,20 +790,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -790,20 +811,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -811,20 +832,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -832,20 +853,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -853,20 +874,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -874,20 +895,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -895,20 +916,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -916,20 +937,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -937,20 +958,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -958,20 +979,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -979,20 +1000,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1000,20 +1021,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1021,20 +1042,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1042,20 +1063,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1063,20 +1084,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1084,20 +1105,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1105,20 +1126,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1126,20 +1147,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1147,20 +1168,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1168,20 +1189,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1189,20 +1210,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1210,20 +1231,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1231,20 +1252,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1252,20 +1273,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1273,20 +1294,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1294,20 +1315,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1315,20 +1336,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1336,16 +1357,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
     </row>
     <row r="45">
       <c r="B45" s="1" t="n"/>
@@ -1357,6 +1374,7 @@
     </row>
     <row r="47">
       <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
     </row>
     <row r="48">
       <c r="B48" s="1" t="n"/>
@@ -1432,6 +1450,9 @@
     </row>
     <row r="72">
       <c r="B72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24/9/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>3 0 2 1
+9 1 6 2
+7 8 3 7
+0 3 5 4</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/4240 (0.24%)
+✅ iBet: 10/225 (4.44%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -475,20 +496,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -496,20 +517,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -517,20 +538,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -538,20 +559,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -559,20 +580,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -580,20 +601,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -601,20 +622,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -622,20 +643,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -643,20 +664,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -664,20 +685,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -685,20 +706,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -706,20 +727,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -727,20 +748,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -748,20 +769,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -769,20 +790,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -790,20 +811,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -811,20 +832,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -832,20 +853,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -853,20 +874,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -874,20 +895,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -895,20 +916,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -916,20 +937,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -937,20 +958,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -958,20 +979,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -979,20 +1000,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1000,20 +1021,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1021,20 +1042,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1042,20 +1063,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1063,20 +1084,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1084,20 +1105,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1105,20 +1126,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1126,20 +1147,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1147,20 +1168,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1168,20 +1189,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1189,20 +1210,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1210,20 +1231,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1231,20 +1252,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1252,20 +1273,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1273,20 +1294,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1294,20 +1315,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1315,20 +1336,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1336,20 +1357,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1357,16 +1378,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
     </row>
     <row r="46">
       <c r="B46" s="1" t="n"/>
@@ -1378,6 +1395,7 @@
     </row>
     <row r="48">
       <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
     </row>
     <row r="49">
       <c r="B49" s="1" t="n"/>
@@ -1453,6 +1471,9 @@
     </row>
     <row r="73">
       <c r="B73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27/9/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>0 8 8 9
+7 3 6 4
+6 9 3 2
+9 7 5 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3814 (0.31%)
+✅ iBet: 12/208 (5.77%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -475,20 +496,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -496,20 +517,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -517,20 +538,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -538,20 +559,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -559,20 +580,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -580,20 +601,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -601,20 +622,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -622,20 +643,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -643,20 +664,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -664,20 +685,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -685,20 +706,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -706,20 +727,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -727,20 +748,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -748,20 +769,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -769,20 +790,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -790,20 +811,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -811,20 +832,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -832,20 +853,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -853,20 +874,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -874,20 +895,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -895,20 +916,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -916,20 +937,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -937,20 +958,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -958,20 +979,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -979,20 +1000,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1000,20 +1021,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1021,20 +1042,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1042,20 +1063,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1063,20 +1084,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1084,20 +1105,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1105,20 +1126,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1126,20 +1147,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1147,20 +1168,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1168,20 +1189,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1189,20 +1210,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1210,20 +1231,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1231,20 +1252,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1252,20 +1273,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1273,20 +1294,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1294,20 +1315,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1315,20 +1336,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1336,20 +1357,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1357,20 +1378,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1378,16 +1399,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n"/>
     </row>
     <row r="47">
       <c r="B47" s="1" t="n"/>
@@ -1399,6 +1416,7 @@
     </row>
     <row r="49">
       <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
     </row>
     <row r="50">
       <c r="B50" s="1" t="n"/>
@@ -1474,6 +1492,9 @@
     </row>
     <row r="74">
       <c r="B74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28/9/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>5 9 5 8
+4 0 6 4
+6 6 9 1
+1 3 7 2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 17/3904 (0.44%)
+✅ iBet: 17/209 (8.13%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -475,20 +496,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -496,20 +517,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -517,20 +538,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -538,20 +559,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -559,20 +580,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -580,20 +601,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -601,20 +622,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -622,20 +643,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -643,20 +664,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -664,20 +685,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -685,20 +706,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -706,20 +727,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -727,20 +748,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -748,20 +769,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -769,20 +790,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -790,20 +811,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -811,20 +832,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -832,20 +853,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -853,20 +874,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -874,20 +895,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -895,20 +916,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -916,20 +937,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -937,20 +958,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -958,20 +979,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -979,20 +1000,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1000,20 +1021,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1021,20 +1042,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1042,20 +1063,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1063,20 +1084,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1084,20 +1105,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1105,20 +1126,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1126,20 +1147,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1147,20 +1168,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1168,20 +1189,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1189,20 +1210,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1210,20 +1231,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1231,20 +1252,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1252,20 +1273,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1273,20 +1294,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1294,20 +1315,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1315,20 +1336,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1336,20 +1357,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1357,20 +1378,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1378,20 +1399,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1399,16 +1420,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
     </row>
     <row r="48">
       <c r="B48" s="1" t="n"/>
@@ -1420,6 +1437,7 @@
     </row>
     <row r="50">
       <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
     </row>
     <row r="51">
       <c r="B51" s="1" t="n"/>
@@ -1495,6 +1513,9 @@
     </row>
     <row r="75">
       <c r="B75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1/10/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>0 5 9 0
+8 0 6 5
+4 9 4 8
+3 2 7 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/4132 (0.29%)
+✅ iBet: 12/219 (5.48%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -475,20 +496,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -496,20 +517,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -517,20 +538,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -538,20 +559,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -559,20 +580,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -580,20 +601,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -601,20 +622,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -622,20 +643,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -643,20 +664,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -664,20 +685,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -685,20 +706,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -706,20 +727,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -727,20 +748,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -748,20 +769,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -769,20 +790,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -790,20 +811,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -811,20 +832,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -832,20 +853,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -853,20 +874,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -874,20 +895,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -895,20 +916,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -916,20 +937,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -937,20 +958,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -958,20 +979,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -979,20 +1000,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1000,20 +1021,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1021,20 +1042,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1042,20 +1063,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1063,20 +1084,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1084,20 +1105,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1105,20 +1126,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1126,20 +1147,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1147,20 +1168,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1168,20 +1189,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1189,20 +1210,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1210,20 +1231,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1231,20 +1252,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1252,20 +1273,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1273,20 +1294,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1294,20 +1315,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1315,20 +1336,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1336,20 +1357,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1357,20 +1378,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1378,20 +1399,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1399,20 +1420,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1420,16 +1441,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="n"/>
     </row>
     <row r="49">
       <c r="B49" s="1" t="n"/>
@@ -1441,6 +1458,7 @@
     </row>
     <row r="51">
       <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
     </row>
     <row r="52">
       <c r="B52" s="1" t="n"/>
@@ -1516,6 +1534,9 @@
     </row>
     <row r="76">
       <c r="B76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>4/10/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6 4 9 1
+9 6 3 0
+0 2 6 9
+1 7 5 8</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/3446 (0.32%)
+✅ iBet: 11/192 (5.73%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -475,20 +496,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -496,20 +517,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -517,20 +538,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -538,20 +559,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -559,20 +580,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -580,20 +601,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -601,20 +622,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -622,20 +643,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -643,20 +664,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -664,20 +685,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -685,20 +706,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -706,20 +727,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -727,20 +748,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -748,20 +769,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -769,20 +790,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -790,20 +811,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -811,20 +832,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -832,20 +853,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -853,20 +874,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -874,20 +895,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -895,20 +916,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -916,20 +937,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -937,20 +958,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -958,20 +979,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -979,20 +1000,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1000,20 +1021,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1021,20 +1042,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1042,20 +1063,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1063,20 +1084,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1084,20 +1105,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1105,20 +1126,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1126,20 +1147,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1147,20 +1168,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1168,20 +1189,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1189,20 +1210,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1210,20 +1231,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1231,20 +1252,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1252,20 +1273,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1273,20 +1294,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1294,20 +1315,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1315,20 +1336,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1336,20 +1357,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1357,20 +1378,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1378,20 +1399,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1399,20 +1420,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1420,20 +1441,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1441,16 +1462,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
     </row>
     <row r="50">
       <c r="B50" s="1" t="n"/>
@@ -1462,6 +1479,7 @@
     </row>
     <row r="52">
       <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
     </row>
     <row r="53">
       <c r="B53" s="1" t="n"/>
@@ -1537,6 +1555,9 @@
     </row>
     <row r="77">
       <c r="B77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>5/10/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>4 2 4 4
+7 8 7 3
+3 6 0 9
+5 1 3 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/3446 (0.32%)
+✅ iBet: 11/188 (5.85%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -475,20 +496,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -496,20 +517,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -517,20 +538,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -538,20 +559,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -559,20 +580,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -580,20 +601,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -601,20 +622,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -622,20 +643,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -643,20 +664,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -664,20 +685,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -685,20 +706,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -706,20 +727,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -727,20 +748,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -748,20 +769,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -769,20 +790,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -790,20 +811,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -811,20 +832,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -832,20 +853,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -853,20 +874,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -874,20 +895,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -895,20 +916,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -916,20 +937,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -937,20 +958,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -958,20 +979,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -979,20 +1000,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1000,20 +1021,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1021,20 +1042,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1042,20 +1063,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1063,20 +1084,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1084,20 +1105,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1105,20 +1126,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1126,20 +1147,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1147,20 +1168,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1168,20 +1189,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1189,20 +1210,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1210,20 +1231,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1231,20 +1252,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1252,20 +1273,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1273,20 +1294,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1294,20 +1315,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1315,20 +1336,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1336,20 +1357,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1357,20 +1378,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1378,20 +1399,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1399,20 +1420,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1420,20 +1441,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1441,20 +1462,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1462,16 +1483,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n"/>
     </row>
     <row r="51">
       <c r="B51" s="1" t="n"/>
@@ -1483,6 +1500,7 @@
     </row>
     <row r="53">
       <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="1" t="n"/>
@@ -1558,6 +1576,9 @@
     </row>
     <row r="78">
       <c r="B78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>8/10/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>4 0 1 9
+8 9 2 4
+3 2 6 5
+0 6 8 7</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/4302 (0.23%)
+✅ iBet: 10/226 (4.42%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -475,20 +496,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -496,20 +517,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -517,20 +538,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -538,20 +559,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -559,20 +580,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -580,20 +601,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -601,20 +622,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -622,20 +643,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -643,20 +664,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -664,20 +685,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -685,20 +706,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -706,20 +727,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -727,20 +748,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -748,20 +769,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -769,20 +790,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -790,20 +811,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -811,20 +832,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -832,20 +853,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -853,20 +874,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -874,20 +895,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -895,20 +916,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -916,20 +937,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -937,20 +958,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -958,20 +979,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -979,20 +1000,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1000,20 +1021,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1021,20 +1042,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1042,20 +1063,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1063,20 +1084,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1084,20 +1105,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1105,20 +1126,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1126,20 +1147,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1147,20 +1168,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1168,20 +1189,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1189,20 +1210,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1210,20 +1231,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1231,20 +1252,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1252,20 +1273,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1273,20 +1294,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1294,20 +1315,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1315,20 +1336,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1336,20 +1357,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1357,20 +1378,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1378,20 +1399,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1399,20 +1420,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1420,20 +1441,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1441,20 +1462,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1462,20 +1483,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1483,16 +1504,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
     </row>
     <row r="52">
       <c r="B52" s="1" t="n"/>
@@ -1504,6 +1521,7 @@
     </row>
     <row r="54">
       <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
     </row>
     <row r="55">
       <c r="B55" s="1" t="n"/>
@@ -1579,6 +1597,9 @@
     </row>
     <row r="79">
       <c r="B79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11/10/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>5 8 0 8
+0 2 7 5
+3 1 1 0
+6 0 9 4</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3841 (0.31%)
+✅ iBet: 12/209 (5.74%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -475,20 +496,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -496,20 +517,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -517,20 +538,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -538,20 +559,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -559,20 +580,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -580,20 +601,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -601,20 +622,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -622,20 +643,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -643,20 +664,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -664,20 +685,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -685,20 +706,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -706,20 +727,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -727,20 +748,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -748,20 +769,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -769,20 +790,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -790,20 +811,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -811,20 +832,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -832,20 +853,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -853,20 +874,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -874,20 +895,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -895,20 +916,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -916,20 +937,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -937,20 +958,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -958,20 +979,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -979,20 +1000,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1000,20 +1021,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1021,20 +1042,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1042,20 +1063,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1063,20 +1084,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1084,20 +1105,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1105,20 +1126,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1126,20 +1147,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1147,20 +1168,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1168,20 +1189,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1189,20 +1210,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1210,20 +1231,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1231,20 +1252,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1252,20 +1273,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1273,20 +1294,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1294,20 +1315,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1315,20 +1336,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1336,20 +1357,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1357,20 +1378,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1378,20 +1399,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1399,20 +1420,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1420,20 +1441,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1441,20 +1462,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1462,20 +1483,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1483,20 +1504,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1504,16 +1525,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n"/>
     </row>
     <row r="53">
       <c r="B53" s="1" t="n"/>
@@ -1525,6 +1542,7 @@
     </row>
     <row r="55">
       <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
     </row>
     <row r="56">
       <c r="B56" s="1" t="n"/>
@@ -1600,6 +1618,9 @@
     </row>
     <row r="80">
       <c r="B80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,10 +464,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12/10/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>9 7 7 9
+1 4 0 5
+0 0 5 0
+2 8 3 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3841 (0.31%)
+✅ iBet: 12/209 (5.74%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -475,20 +496,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -496,20 +517,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -517,20 +538,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -538,20 +559,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -559,20 +580,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -580,20 +601,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -601,20 +622,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -622,20 +643,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -643,20 +664,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -664,20 +685,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -685,20 +706,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -706,20 +727,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -727,20 +748,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -748,20 +769,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -769,20 +790,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -790,20 +811,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -811,20 +832,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -832,20 +853,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -853,20 +874,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -874,20 +895,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -895,20 +916,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -916,20 +937,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -937,20 +958,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -958,20 +979,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -979,20 +1000,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1000,20 +1021,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1021,20 +1042,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1042,20 +1063,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1063,20 +1084,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1084,20 +1105,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1105,20 +1126,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1126,20 +1147,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1147,20 +1168,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1168,20 +1189,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1189,20 +1210,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1210,20 +1231,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1231,20 +1252,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1252,20 +1273,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1273,20 +1294,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1294,20 +1315,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1315,20 +1336,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1336,20 +1357,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1357,20 +1378,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1378,20 +1399,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1399,20 +1420,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1420,20 +1441,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1441,20 +1462,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1462,20 +1483,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1483,20 +1504,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1504,20 +1525,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1525,16 +1546,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="1" t="n"/>
@@ -1546,6 +1563,7 @@
     </row>
     <row r="56">
       <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
     </row>
     <row r="57">
       <c r="B57" s="1" t="n"/>
@@ -1621,6 +1639,9 @@
     </row>
     <row r="81">
       <c r="B81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Predicted_Box" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -431,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -464,7 +465,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12/10/2025 (Sun)</t>
+          <t>14/10/2025 (Tue)</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -485,10 +486,31 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12/10/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>9 7 7 9
+1 4 0 5
+0 0 5 0
+2 8 3 6</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3841 (0.31%)
+✅ iBet: 12/209 (5.74%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -496,20 +518,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -517,20 +539,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -538,20 +560,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -559,20 +581,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -580,20 +602,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -601,20 +623,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -622,20 +644,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -643,20 +665,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -664,20 +686,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -685,20 +707,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -706,20 +728,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -727,20 +749,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -748,20 +770,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -769,20 +791,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -790,20 +812,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -811,20 +833,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -832,20 +854,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -853,20 +875,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -874,20 +896,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -895,20 +917,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -916,20 +938,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -937,20 +959,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -958,20 +980,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -979,20 +1001,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1000,20 +1022,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1021,20 +1043,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1042,20 +1064,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1063,20 +1085,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1084,20 +1106,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1105,20 +1127,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1126,20 +1148,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1147,20 +1169,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1168,20 +1190,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1189,20 +1211,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1210,20 +1232,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1231,20 +1253,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1252,20 +1274,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1273,20 +1295,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1294,20 +1316,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1315,20 +1337,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1336,20 +1358,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1357,20 +1379,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1378,20 +1400,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1399,20 +1421,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1420,20 +1442,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1441,20 +1463,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1462,20 +1484,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1483,20 +1505,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1504,20 +1526,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1525,20 +1547,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1546,16 +1568,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n"/>
     </row>
     <row r="55">
       <c r="B55" s="1" t="n"/>
@@ -1567,6 +1585,7 @@
     </row>
     <row r="57">
       <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
     </row>
     <row r="58">
       <c r="B58" s="1" t="n"/>
@@ -1642,6 +1661,63 @@
     </row>
     <row r="82">
       <c r="B82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>4x4 Box</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>14/10/2025 (Tue)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1 7 2 9
+0 2 3 4
+3 5 9 7
+5 6 8 0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -486,7 +486,7 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12/10/2025 (Sun)</t>
+          <t>14/10/2025 (Tue)</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -507,10 +507,31 @@
     <row r="4" ht="60" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12/10/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>9 7 7 9
+1 4 0 5
+0 0 5 0
+2 8 3 6</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3841 (0.31%)
+✅ iBet: 12/209 (5.74%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -518,20 +539,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -539,20 +560,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -560,20 +581,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -581,20 +602,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -602,20 +623,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -623,20 +644,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -644,20 +665,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -665,20 +686,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -686,20 +707,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -707,20 +728,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -728,20 +749,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -749,20 +770,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -770,20 +791,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -791,20 +812,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -812,20 +833,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -833,20 +854,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -854,20 +875,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -875,20 +896,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -896,20 +917,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -917,20 +938,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -938,20 +959,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -959,20 +980,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -980,20 +1001,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1001,20 +1022,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1022,20 +1043,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1043,20 +1064,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1064,20 +1085,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1085,20 +1106,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1106,20 +1127,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1127,20 +1148,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1148,20 +1169,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1169,20 +1190,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1190,20 +1211,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1211,20 +1232,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1232,20 +1253,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1253,20 +1274,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1274,20 +1295,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1295,20 +1316,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1316,20 +1337,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1337,20 +1358,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1358,20 +1379,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1379,20 +1400,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1400,20 +1421,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1421,20 +1442,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1442,20 +1463,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1463,20 +1484,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1484,20 +1505,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1505,20 +1526,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1526,20 +1547,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1547,20 +1568,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1568,16 +1589,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
     </row>
     <row r="56">
       <c r="B56" s="1" t="n"/>
@@ -1589,6 +1606,7 @@
     </row>
     <row r="58">
       <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
     </row>
     <row r="59">
       <c r="B59" s="1" t="n"/>
@@ -1664,6 +1682,9 @@
     </row>
     <row r="83">
       <c r="B83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -485,7 +485,7 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15/10/2025 (Wed)</t>
+          <t>18/10/2025 (Sat)</t>
         </is>
       </c>
       <c r="B2" s="6" t="inlineStr">
@@ -498,23 +498,45 @@
       </c>
     </row>
     <row r="3" ht="75" customHeight="1">
-      <c r="B3" s="5" t="n"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15/10/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>4  7  2  9
+0  2  3  4
+1  5  9  7
+5  6  8  0</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet Winning rate: 12/226 (5.31%)
+▶ Direct Winning rate: 12/4302 (0.28%)
+▶ Total Sets hit: 12</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="75" customHeight="1">
       <c r="B4" s="5" t="n"/>
-      <c r="C4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="5" t="n"/>
       <c r="C5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="1" t="n"/>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -527,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -557,13 +579,34 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1">
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18/10/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1 2 4 2
+2 0 8 6
+9 4 1 5
+5 3 3 7</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/4078 (0.27%)
+✅ iBet: 11/217 (5.07%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -571,20 +614,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -592,20 +635,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -613,20 +656,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -634,20 +677,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -655,20 +698,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -676,20 +719,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -697,20 +740,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -718,20 +761,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -739,20 +782,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -760,20 +803,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -781,20 +824,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -802,20 +845,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -823,20 +866,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -844,20 +887,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -865,20 +908,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -886,20 +929,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -907,20 +950,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -928,20 +971,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -949,20 +992,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -970,20 +1013,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -991,20 +1034,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1012,20 +1055,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1033,20 +1076,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1054,20 +1097,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1075,20 +1118,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1096,20 +1139,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1117,20 +1160,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1138,20 +1181,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1159,20 +1202,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1180,20 +1223,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1201,20 +1244,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1222,20 +1265,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1243,20 +1286,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1264,20 +1307,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1285,20 +1328,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1306,20 +1349,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1327,20 +1370,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1348,20 +1391,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1369,20 +1412,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1390,20 +1433,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1411,20 +1454,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1432,20 +1475,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1453,20 +1496,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1474,20 +1517,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1495,20 +1538,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1516,20 +1559,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1537,20 +1580,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1558,20 +1601,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1579,20 +1622,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1600,20 +1643,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1621,20 +1664,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1642,20 +1685,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1663,16 +1706,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
     </row>
     <row r="56">
       <c r="B56" s="1" t="n"/>
@@ -1684,6 +1723,7 @@
     </row>
     <row r="58">
       <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
     </row>
     <row r="59">
       <c r="B59" s="1" t="n"/>
@@ -1759,6 +1799,9 @@
     </row>
     <row r="83">
       <c r="B83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27127477-EDB6-4507-BCEA-C7E39088909A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D7FDFE-6F31-4C9B-A27B-35C0D399A27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,7 +717,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +732,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
     </font>
     <font>
       <sz val="11"/>
@@ -768,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -779,6 +783,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1086,7 +1093,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1126,7 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -552,20 +552,42 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
+          <t>0 4 2 5
+3 2 7 4
+1 5 6 9
+6 1 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>25/10/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
           <t>0 4 2 8
 3 2 8 4
 1 5 9 7
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 12/237 (5.06%)
+▶ Direct: 12/4554 (0.26%)
+▶ Total Sets hit: 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -573,7 +595,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -581,13 +603,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -595,7 +617,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -603,13 +625,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -617,7 +639,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -625,17 +647,17 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="1" t="n"/>
-    </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="B7" s="1" t="n"/>
+      <c r="B7" s="4" t="n"/>
       <c r="C7" s="1" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -648,7 +670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -702,10 +724,31 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25/10/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>8 4 9 5
+6 8 7 8
+4 9 6 9
+1 2 3 0</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/3980 (0.30%)
+✅ iBet: 12/215 (5.58%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -713,20 +756,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -734,20 +777,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -755,20 +798,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -776,20 +819,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -797,20 +840,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -818,20 +861,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -839,20 +882,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -860,20 +903,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -881,20 +924,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -902,20 +945,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -923,20 +966,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -944,20 +987,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -965,20 +1008,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -986,20 +1029,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1007,20 +1050,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1028,20 +1071,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1049,20 +1092,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1070,20 +1113,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1091,20 +1134,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1112,20 +1155,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1133,20 +1176,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1154,20 +1197,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1175,20 +1218,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1196,20 +1239,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1217,20 +1260,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1238,20 +1281,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1259,20 +1302,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1280,20 +1323,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1301,20 +1344,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1322,20 +1365,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1343,20 +1386,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1364,20 +1407,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1385,20 +1428,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1406,20 +1449,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1427,20 +1470,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1448,20 +1491,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1469,20 +1512,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1490,20 +1533,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1511,20 +1554,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1532,20 +1575,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1553,20 +1596,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1574,20 +1617,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1595,20 +1638,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1616,20 +1659,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1637,20 +1680,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1658,20 +1701,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1679,20 +1722,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1700,20 +1743,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1721,20 +1764,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1742,20 +1785,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1763,20 +1806,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1784,20 +1827,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1805,20 +1848,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1826,20 +1869,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1847,20 +1890,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1868,16 +1911,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="n"/>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="B60" s="1" t="n"/>
@@ -1889,6 +1928,7 @@
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="B63" s="1" t="n"/>
@@ -1964,6 +2004,9 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="B87" s="1" t="n"/>
+    </row>
+    <row r="88" ht="15" customHeight="1">
+      <c r="B88" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -83,7 +83,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -121,6 +121,11 @@
         <fgColor rgb="00FFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -134,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -179,6 +184,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -553,8 +562,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="14.3" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="37.7" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.1" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="36.5" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -577,10 +586,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>0 4 2 8
+3 2 8 4
+7 5 9 0
+5 6 3 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -588,14 +612,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 8/226 (3.54%)
+▶ Direct: 8/4302 (0.19%)
+▶ Total Sets hit: 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -603,7 +634,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -611,13 +642,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -625,7 +656,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -633,13 +664,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -647,7 +678,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -655,13 +686,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -669,7 +700,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -677,17 +708,17 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="1" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="B8" s="1" t="n"/>
+    <row r="8">
+      <c r="B8" s="4" t="n"/>
       <c r="C8" s="1" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9">
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -700,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -709,8 +740,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.3" customWidth="1" min="2" max="2"/>
-    <col width="37.7" customWidth="1" min="3" max="3"/>
+    <col width="13.1" customWidth="1" min="2" max="2"/>
+    <col width="36.5" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="2">
@@ -733,10 +764,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29/10/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>3 0 5 1
+5 4 8 8
+7 3 2 4
+6 7 7 9</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/4132 (0.29%)
+✅ iBet: 12/219 (5.48%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -744,20 +796,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -765,20 +817,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -786,20 +838,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -807,20 +859,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -828,20 +880,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -849,20 +901,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -870,20 +922,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -891,20 +943,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -912,20 +964,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -933,20 +985,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -954,20 +1006,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -975,20 +1027,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -996,20 +1048,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1017,20 +1069,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1038,20 +1090,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1059,20 +1111,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1080,20 +1132,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1101,20 +1153,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1122,20 +1174,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1143,20 +1195,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1164,20 +1216,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1185,20 +1237,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1206,20 +1258,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1227,20 +1279,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1248,20 +1300,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1269,20 +1321,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1290,20 +1342,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1311,20 +1363,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1332,20 +1384,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1353,20 +1405,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1374,20 +1426,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1395,20 +1447,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1416,20 +1468,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1437,20 +1489,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1458,20 +1510,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1479,20 +1531,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1500,20 +1552,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1521,20 +1573,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1542,20 +1594,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1563,20 +1615,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1584,20 +1636,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1605,20 +1657,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1626,20 +1678,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1647,20 +1699,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1668,20 +1720,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1689,20 +1741,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1710,20 +1762,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1731,20 +1783,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1752,20 +1804,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1773,20 +1825,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1794,20 +1846,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1815,20 +1867,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1836,20 +1888,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1857,20 +1909,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1878,20 +1930,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1899,20 +1951,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1920,20 +1972,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1941,102 +1993,102 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="B60" s="1" t="n"/>
-      <c r="C60" s="1" t="n"/>
-    </row>
-    <row r="61" ht="15" customHeight="1">
+    <row r="61">
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="n"/>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62">
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="n"/>
     </row>
-    <row r="63" ht="15" customHeight="1">
+    <row r="63">
       <c r="B63" s="1" t="n"/>
-    </row>
-    <row r="64" ht="15" customHeight="1">
+      <c r="C63" s="1" t="n"/>
+    </row>
+    <row r="64">
       <c r="B64" s="1" t="n"/>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65">
       <c r="B65" s="1" t="n"/>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66">
       <c r="B66" s="1" t="n"/>
     </row>
-    <row r="67" ht="15" customHeight="1">
+    <row r="67">
       <c r="B67" s="1" t="n"/>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68">
       <c r="B68" s="1" t="n"/>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69">
       <c r="B69" s="1" t="n"/>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70">
       <c r="B70" s="1" t="n"/>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71">
       <c r="B71" s="1" t="n"/>
     </row>
-    <row r="72" ht="15" customHeight="1">
+    <row r="72">
       <c r="B72" s="1" t="n"/>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73">
       <c r="B73" s="1" t="n"/>
     </row>
-    <row r="74" ht="15" customHeight="1">
+    <row r="74">
       <c r="B74" s="1" t="n"/>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75">
       <c r="B75" s="1" t="n"/>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76">
       <c r="B76" s="1" t="n"/>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77">
       <c r="B77" s="1" t="n"/>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78">
       <c r="B78" s="1" t="n"/>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79">
       <c r="B79" s="1" t="n"/>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80">
       <c r="B80" s="1" t="n"/>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81">
       <c r="B81" s="1" t="n"/>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82">
       <c r="B82" s="1" t="n"/>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83">
       <c r="B83" s="1" t="n"/>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84">
       <c r="B84" s="1" t="n"/>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85">
       <c r="B85" s="1" t="n"/>
     </row>
-    <row r="86" ht="15" customHeight="1">
+    <row r="86">
       <c r="B86" s="1" t="n"/>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87">
       <c r="B87" s="1" t="n"/>
     </row>
-    <row r="88" ht="15" customHeight="1">
+    <row r="88">
       <c r="B88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2049,7 +2101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2082,28 +2134,47 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sun - 26/10/2025</t>
+          <t>01/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8585 4178</t>
-        </is>
-      </c>
-      <c r="C2" s="17" t="inlineStr"/>
+          <t>3378 0316 8612 5548 8585</t>
+        </is>
+      </c>
+      <c r="C2" s="19" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Sun - 26/10/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8585 4178</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2111,18 +2182,18 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -83,7 +83,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -126,6 +126,11 @@
         <fgColor rgb="00CCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -188,6 +193,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -586,7 +595,7 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/11/2025 (Sat)</t>
+          <t>02/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
@@ -601,10 +610,32 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>0 4 2 8
+3 2 8 4
+7 5 9 0
+5 6 3 1</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 13/237 (5.49%)
+▶ Direct: 13/4554 (0.29%)
+▶ Total Sets hit: 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -612,7 +643,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -620,13 +651,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -634,7 +665,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -642,13 +673,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -656,7 +687,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -664,13 +695,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -678,7 +709,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -686,13 +717,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -700,7 +731,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -708,17 +739,17 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="1" t="n"/>
-    </row>
     <row r="9">
-      <c r="B9" s="1" t="n"/>
+      <c r="B9" s="4" t="n"/>
       <c r="C9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -731,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -764,10 +795,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>9 3 2 3
+4 6 4 5
+6 4 8 6
+0 2 7 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/3818 (0.26%)
+✅ iBet: 10/208 (4.81%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -775,20 +827,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -796,20 +848,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -817,20 +869,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -838,20 +890,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -859,20 +911,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -880,20 +932,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -901,20 +953,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -922,20 +974,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -943,20 +995,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -964,20 +1016,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -985,20 +1037,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1006,20 +1058,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1027,20 +1079,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1048,20 +1100,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1069,20 +1121,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1090,20 +1142,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1111,20 +1163,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1132,20 +1184,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1153,20 +1205,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1174,20 +1226,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1195,20 +1247,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1216,20 +1268,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1237,20 +1289,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1258,20 +1310,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1279,20 +1331,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1300,20 +1352,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1321,20 +1373,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1342,20 +1394,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1363,20 +1415,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1384,20 +1436,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1405,20 +1457,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1426,20 +1478,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1447,20 +1499,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1468,20 +1520,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1489,20 +1541,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1510,20 +1562,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1531,20 +1583,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1552,20 +1604,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1573,20 +1625,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1594,20 +1646,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1615,20 +1667,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1636,20 +1688,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1657,20 +1709,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1678,20 +1730,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1699,20 +1751,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1720,20 +1772,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1741,20 +1793,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1762,20 +1814,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1783,20 +1835,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1804,20 +1856,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1825,20 +1877,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1846,20 +1898,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1867,20 +1919,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1888,20 +1940,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1909,20 +1961,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1930,20 +1982,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -1951,20 +2003,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -1972,20 +2024,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -1993,16 +2045,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n"/>
     </row>
     <row r="62">
       <c r="B62" s="1" t="n"/>
@@ -2014,6 +2062,7 @@
     </row>
     <row r="64">
       <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
     </row>
     <row r="65">
       <c r="B65" s="1" t="n"/>
@@ -2089,6 +2138,9 @@
     </row>
     <row r="89">
       <c r="B89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2101,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2134,28 +2186,28 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/11/2025 (Sat)</t>
+          <t>02/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3378 0316 8612 5548 8585</t>
-        </is>
-      </c>
-      <c r="C2" s="19" t="inlineStr"/>
+          <t>0316 8612 5548 4326 8585</t>
+        </is>
+      </c>
+      <c r="C2" s="21" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sun - 26/10/2025</t>
+          <t>01/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8585 4178</t>
-        </is>
-      </c>
-      <c r="C3" s="18" t="inlineStr">
+          <t>3378 0316 8612 5548 8585</t>
+        </is>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2166,15 +2218,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Sun - 26/10/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8585 4178</t>
+        </is>
+      </c>
+      <c r="C4" s="18" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C4" s="16" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2182,18 +2253,18 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -197,6 +197,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -595,7 +599,7 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02/11/2025 (Sun)</t>
+          <t>05/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
@@ -610,7 +614,7 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/11/2025 (Sat)</t>
+          <t>02/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B3" s="15" t="inlineStr">
@@ -623,19 +627,41 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
+          <t>▶ iBet: 8/237 (3.38%)
+▶ Direct: 8/4554 (0.18%)
+▶ Total Sets hit: 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>0 4 2 8
+3 2 8 4
+7 5 9 0
+5 6 3 1</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
 ▶ Total Sets hit: 13</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -643,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -651,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -665,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -673,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -687,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -695,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -709,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -717,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -731,7 +757,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -739,17 +765,17 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="1" t="n"/>
-    </row>
     <row r="10">
-      <c r="B10" s="1" t="n"/>
+      <c r="B10" s="4" t="n"/>
       <c r="C10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -762,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -795,10 +821,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>8 5 8 4
+0 2 6 7
+7 7 7 9
+5 6 1 3</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 13/3703 (0.35%)
+✅ iBet: 13/204 (6.37%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -806,20 +853,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -827,20 +874,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -848,20 +895,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -869,20 +916,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -890,20 +937,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -911,20 +958,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -932,20 +979,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -953,20 +1000,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -974,20 +1021,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -995,20 +1042,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1016,20 +1063,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1037,20 +1084,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1058,20 +1105,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1079,20 +1126,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1100,20 +1147,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1121,20 +1168,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1142,20 +1189,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1163,20 +1210,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1184,20 +1231,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1205,20 +1252,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1226,20 +1273,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1247,20 +1294,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1268,20 +1315,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1289,20 +1336,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1310,20 +1357,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1331,20 +1378,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1352,20 +1399,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1373,20 +1420,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1394,20 +1441,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1415,20 +1462,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1436,20 +1483,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1457,20 +1504,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1478,20 +1525,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1499,20 +1546,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1520,20 +1567,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1541,20 +1588,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1562,20 +1609,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1583,20 +1630,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1604,20 +1651,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1625,20 +1672,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1646,20 +1693,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1667,20 +1714,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1688,20 +1735,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1709,20 +1756,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1730,20 +1777,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1751,20 +1798,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1772,20 +1819,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1793,20 +1840,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1814,20 +1861,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1835,20 +1882,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1856,20 +1903,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1877,20 +1924,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1898,20 +1945,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1919,20 +1966,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1940,20 +1987,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -1961,20 +2008,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -1982,20 +2029,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2003,20 +2050,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2024,20 +2071,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2045,16 +2092,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="n"/>
     </row>
     <row r="63">
       <c r="B63" s="1" t="n"/>
@@ -2066,6 +2109,7 @@
     </row>
     <row r="65">
       <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
     </row>
     <row r="66">
       <c r="B66" s="1" t="n"/>
@@ -2141,6 +2185,9 @@
     </row>
     <row r="90">
       <c r="B90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2153,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2186,28 +2233,47 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02/11/2025 (Sun)</t>
+          <t>05/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0316 8612 5548 4326 8585</t>
-        </is>
-      </c>
-      <c r="C2" s="21" t="inlineStr"/>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 4326 8585</t>
+        </is>
+      </c>
+      <c r="C3" s="22" t="inlineStr">
+        <is>
+          <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C3" s="20" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2215,18 +2281,18 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C4" s="18" t="inlineStr">
+      <c r="C5" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2234,18 +2300,18 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2253,18 +2319,18 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>0 4 2 7
+3 2 8 4
+1 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -610,14 +625,21 @@
 5 6 3 1</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 9/237 (3.80%)
+▶ Direct: 9/4554 (0.20%)
+▶ Total Sets hit: 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -625,7 +647,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -647,7 +669,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -757,7 +779,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -765,17 +787,17 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="1" t="n"/>
-    </row>
     <row r="11">
-      <c r="B11" s="1" t="n"/>
+      <c r="B11" s="4" t="n"/>
       <c r="C11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -788,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -821,10 +843,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>0 3 4 7
+2 7 8 1
+1 9 9 5
+4 8 0 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 12/4176 (0.29%)
+✅ iBet: 12/220 (5.45%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -832,20 +875,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -853,20 +896,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -874,20 +917,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -895,20 +938,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -916,20 +959,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -937,20 +980,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -958,20 +1001,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -979,20 +1022,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1000,20 +1043,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1021,20 +1064,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1042,20 +1085,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1063,20 +1106,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1084,20 +1127,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1105,20 +1148,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1126,20 +1169,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1147,20 +1190,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1168,20 +1211,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1189,20 +1232,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1210,20 +1253,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1231,20 +1274,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1252,20 +1295,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1273,20 +1316,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1294,20 +1337,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1315,20 +1358,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1336,20 +1379,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1357,20 +1400,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1378,20 +1421,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1399,20 +1442,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1420,20 +1463,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1441,20 +1484,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1462,20 +1505,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1483,20 +1526,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1504,20 +1547,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1525,20 +1568,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1546,20 +1589,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1567,20 +1610,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1588,20 +1631,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1609,20 +1652,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1630,20 +1673,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1651,20 +1694,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1672,20 +1715,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1693,20 +1736,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1714,20 +1757,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1735,20 +1778,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1756,20 +1799,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1777,20 +1820,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1798,20 +1841,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1819,20 +1862,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1840,20 +1883,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1861,20 +1904,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1882,20 +1925,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1903,20 +1946,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1924,20 +1967,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1945,20 +1988,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -1966,20 +2009,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -1987,20 +2030,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2008,20 +2051,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2029,20 +2072,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2050,20 +2093,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2071,20 +2114,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2092,16 +2135,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="n"/>
     </row>
     <row r="64">
       <c r="B64" s="1" t="n"/>
@@ -2113,6 +2152,7 @@
     </row>
     <row r="66">
       <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
     </row>
     <row r="67">
       <c r="B67" s="1" t="n"/>
@@ -2188,6 +2228,9 @@
     </row>
     <row r="91">
       <c r="B91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2200,7 +2243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2233,28 +2276,47 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C2" s="23" t="inlineStr"/>
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C3" s="22" t="inlineStr">
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2262,18 +2324,18 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C4" s="20" t="inlineStr">
+      <c r="C5" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2281,18 +2343,18 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C5" s="18" t="inlineStr">
+      <c r="C6" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2300,18 +2362,18 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C6" s="16" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2319,18 +2381,18 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>6 4 2 7
+0 2 8 4
+1 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -610,14 +625,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 12/237 (5.06%)
+▶ Direct: 12/4554 (0.26%)
+▶ Total Sets hit: 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -625,7 +647,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -647,7 +669,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -669,7 +691,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -779,7 +801,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -787,17 +809,17 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="1" t="n"/>
-    </row>
     <row r="12">
-      <c r="B12" s="1" t="n"/>
+      <c r="B12" s="4" t="n"/>
       <c r="C12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -810,7 +832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -843,10 +865,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>6 4 6 7
+0 2 0 5
+4 8 9 9
+7 3 8 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 16/4212 (0.38%)
+✅ iBet: 16/223 (7.17%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -854,20 +897,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -875,20 +918,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -896,20 +939,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -917,20 +960,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -938,20 +981,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -959,20 +1002,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -980,20 +1023,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1001,20 +1044,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1022,20 +1065,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1043,20 +1086,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1064,20 +1107,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1085,20 +1128,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1106,20 +1149,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1127,20 +1170,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1148,20 +1191,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1169,20 +1212,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1190,20 +1233,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1211,20 +1254,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1232,20 +1275,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1253,20 +1296,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1274,20 +1317,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1295,20 +1338,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1316,20 +1359,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1337,20 +1380,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1358,20 +1401,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1379,20 +1422,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1400,20 +1443,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1421,20 +1464,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1442,20 +1485,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1463,20 +1506,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1484,20 +1527,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1505,20 +1548,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1526,20 +1569,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1547,20 +1590,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1568,20 +1611,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1589,20 +1632,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1610,20 +1653,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1631,20 +1674,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1652,20 +1695,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1673,20 +1716,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1694,20 +1737,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1715,20 +1758,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1736,20 +1779,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1757,20 +1800,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1778,20 +1821,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1799,20 +1842,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1820,20 +1863,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1841,20 +1884,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1862,20 +1905,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1883,20 +1926,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1904,20 +1947,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1925,20 +1968,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1946,20 +1989,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -1967,20 +2010,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -1988,20 +2031,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2009,20 +2052,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2030,20 +2073,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2051,20 +2094,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2072,20 +2115,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2093,20 +2136,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2114,20 +2157,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2135,16 +2178,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="1" t="n"/>
-      <c r="C64" s="1" t="n"/>
     </row>
     <row r="65">
       <c r="B65" s="1" t="n"/>
@@ -2156,6 +2195,7 @@
     </row>
     <row r="67">
       <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
     </row>
     <row r="68">
       <c r="B68" s="1" t="n"/>
@@ -2231,6 +2271,9 @@
     </row>
     <row r="92">
       <c r="B92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2243,7 +2286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2276,28 +2319,28 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C2" s="17" t="inlineStr"/>
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C2" s="19" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2308,15 +2351,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C4" s="22" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2324,18 +2386,18 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C5" s="20" t="inlineStr">
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2343,18 +2405,18 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C6" s="18" t="inlineStr">
+      <c r="C7" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2362,18 +2424,18 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2381,18 +2443,18 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>0 4 2 7
+3 2 8 4
+1 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -610,14 +625,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 7/226 (3.10%)
+▶ Direct: 7/4302 (0.16%)
+▶ Total Sets hit: 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -647,7 +669,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -669,7 +691,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -691,7 +713,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -779,7 +801,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -801,7 +823,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -809,17 +831,17 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="1" t="n"/>
-    </row>
     <row r="13">
-      <c r="B13" s="1" t="n"/>
+      <c r="B13" s="4" t="n"/>
       <c r="C13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -832,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -865,10 +887,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>0 8 4 9
+9 5 1 7
+6 1 7 8
+4 2 3 3</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/4212 (0.24%)
+✅ iBet: 10/223 (4.48%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -876,20 +919,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -897,20 +940,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -918,20 +961,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -939,20 +982,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -960,20 +1003,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -981,20 +1024,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1002,20 +1045,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1023,20 +1066,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1044,20 +1087,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1065,20 +1108,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1086,20 +1129,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1107,20 +1150,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1128,20 +1171,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1149,20 +1192,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1170,20 +1213,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1191,20 +1234,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1212,20 +1255,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1233,20 +1276,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1254,20 +1297,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1275,20 +1318,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1296,20 +1339,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1317,20 +1360,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1338,20 +1381,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1359,20 +1402,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1380,20 +1423,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1401,20 +1444,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1422,20 +1465,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1443,20 +1486,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1464,20 +1507,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1485,20 +1528,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1506,20 +1549,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1527,20 +1570,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1548,20 +1591,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1569,20 +1612,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1590,20 +1633,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1611,20 +1654,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1632,20 +1675,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1653,20 +1696,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1674,20 +1717,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1695,20 +1738,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1716,20 +1759,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1737,20 +1780,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1758,20 +1801,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1779,20 +1822,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1800,20 +1843,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1821,20 +1864,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1842,20 +1885,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1863,20 +1906,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1884,20 +1927,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1905,20 +1948,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1926,20 +1969,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1947,20 +1990,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -1968,20 +2011,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -1989,20 +2032,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2010,20 +2053,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2031,20 +2074,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2052,20 +2095,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2073,20 +2116,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2094,20 +2137,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2115,20 +2158,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2136,20 +2179,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2157,20 +2200,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2178,16 +2221,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="n"/>
     </row>
     <row r="66">
       <c r="B66" s="1" t="n"/>
@@ -2199,6 +2238,7 @@
     </row>
     <row r="68">
       <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="1" t="n"/>
@@ -2274,6 +2314,9 @@
     </row>
     <row r="93">
       <c r="B93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2286,7 +2329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2319,28 +2362,28 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C2" s="19" t="inlineStr"/>
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C2" s="21" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C3" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2351,15 +2394,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C4" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C4" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2370,15 +2413,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C5" s="22" t="inlineStr">
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2386,18 +2448,18 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C6" s="20" t="inlineStr">
+      <c r="C7" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2405,18 +2467,18 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C7" s="18" t="inlineStr">
+      <c r="C8" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2424,18 +2486,18 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2443,18 +2505,18 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>0 4 2 7
+3 2 1 4
+1 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -610,14 +625,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 13/237 (5.49%)
+▶ Direct: 13/4554 (0.29%)
+▶ Total Sets hit: 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -669,7 +691,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -691,7 +713,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -713,7 +735,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -779,7 +801,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -801,7 +823,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -823,7 +845,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -831,17 +853,17 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="1" t="n"/>
-    </row>
     <row r="14">
-      <c r="B14" s="1" t="n"/>
+      <c r="B14" s="4" t="n"/>
       <c r="C14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -854,7 +876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -887,10 +909,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>8 7 2 6
+3 8 1 3
+4 6 4 9
+9 2 0 5</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 14/4302 (0.33%)
+✅ iBet: 14/226 (6.19%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -898,20 +941,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -919,20 +962,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -940,20 +983,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -961,20 +1004,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -982,20 +1025,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1003,20 +1046,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1024,20 +1067,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1045,20 +1088,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1066,20 +1109,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1087,20 +1130,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1108,20 +1151,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1129,20 +1172,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1150,20 +1193,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1171,20 +1214,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1192,20 +1235,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1213,20 +1256,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1234,20 +1277,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1255,20 +1298,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1276,20 +1319,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1297,20 +1340,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1318,20 +1361,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1339,20 +1382,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1360,20 +1403,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1381,20 +1424,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1402,20 +1445,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1423,20 +1466,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1444,20 +1487,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1465,20 +1508,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1486,20 +1529,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1507,20 +1550,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1528,20 +1571,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1549,20 +1592,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1570,20 +1613,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1591,20 +1634,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1612,20 +1655,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1633,20 +1676,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1654,20 +1697,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1675,20 +1718,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1696,20 +1739,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1717,20 +1760,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1738,20 +1781,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1759,20 +1802,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1780,20 +1823,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1801,20 +1844,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1822,20 +1865,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1843,20 +1886,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1864,20 +1907,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1885,20 +1928,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1906,20 +1949,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1927,20 +1970,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1948,20 +1991,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -1969,20 +2012,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -1990,20 +2033,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2011,20 +2054,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2032,20 +2075,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2053,20 +2096,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2074,20 +2117,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2095,20 +2138,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2116,20 +2159,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2137,20 +2180,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2158,20 +2201,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2179,20 +2222,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2200,20 +2243,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2221,16 +2264,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n"/>
     </row>
     <row r="67">
       <c r="B67" s="1" t="n"/>
@@ -2242,6 +2281,7 @@
     </row>
     <row r="69">
       <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="1" t="n"/>
@@ -2317,6 +2357,9 @@
     </row>
     <row r="94">
       <c r="B94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2329,7 +2372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2362,28 +2405,28 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C2" s="21" t="inlineStr"/>
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C3" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2394,15 +2437,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C4" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2413,15 +2456,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C5" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2432,15 +2475,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C6" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C6" s="22" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2448,18 +2510,18 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C7" s="20" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2467,18 +2529,18 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C8" s="18" t="inlineStr">
+      <c r="C9" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2486,18 +2548,18 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2505,18 +2567,18 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>0 7 2 1
+3 2 1 4
+4 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -610,14 +625,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 7/226 (3.10%)
+▶ Direct: 7/4302 (0.16%)
+▶ Total Sets hit: 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -691,7 +713,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -713,7 +735,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -735,7 +757,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -779,7 +801,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -801,7 +823,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -823,7 +845,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -845,7 +867,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -853,17 +875,17 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="1" t="n"/>
-    </row>
     <row r="15">
-      <c r="B15" s="1" t="n"/>
+      <c r="B15" s="4" t="n"/>
       <c r="C15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -876,7 +898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -909,10 +931,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>8 7 0 1
+9 8 5 9
+0 6 7 4
+1 2 6 3</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 11/4128 (0.27%)
+✅ iBet: 11/217 (5.07%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -920,20 +963,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -941,20 +984,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -962,20 +1005,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -983,20 +1026,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1004,20 +1047,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1025,20 +1068,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1046,20 +1089,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1067,20 +1110,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1088,20 +1131,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1109,20 +1152,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1130,20 +1173,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1151,20 +1194,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1172,20 +1215,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1193,20 +1236,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1214,20 +1257,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1235,20 +1278,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1256,20 +1299,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1277,20 +1320,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1298,20 +1341,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1319,20 +1362,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1340,20 +1383,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1361,20 +1404,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1382,20 +1425,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1403,20 +1446,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1424,20 +1467,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1445,20 +1488,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1466,20 +1509,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1487,20 +1530,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1508,20 +1551,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1529,20 +1572,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1550,20 +1593,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1571,20 +1614,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1592,20 +1635,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1613,20 +1656,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1634,20 +1677,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1655,20 +1698,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1676,20 +1719,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1697,20 +1740,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1718,20 +1761,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1739,20 +1782,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1760,20 +1803,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1781,20 +1824,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1802,20 +1845,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1823,20 +1866,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1844,20 +1887,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1865,20 +1908,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1886,20 +1929,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1907,20 +1950,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1928,20 +1971,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1949,20 +1992,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -1970,20 +2013,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -1991,20 +2034,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -2012,20 +2055,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -2033,20 +2076,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2054,20 +2097,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2075,20 +2118,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2096,20 +2139,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2117,20 +2160,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2138,20 +2181,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2159,20 +2202,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2180,20 +2223,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2201,20 +2244,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2222,20 +2265,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2243,20 +2286,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2264,16 +2307,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n"/>
     </row>
     <row r="68">
       <c r="B68" s="1" t="n"/>
@@ -2285,6 +2324,7 @@
     </row>
     <row r="70">
       <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="1" t="n"/>
@@ -2360,6 +2400,9 @@
     </row>
     <row r="95">
       <c r="B95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2372,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2405,28 +2448,28 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15/11/2025 (Sat)</t>
+          <t>16/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9223 0316 8612 7499 6456</t>
-        </is>
-      </c>
-      <c r="C2" s="23" t="inlineStr"/>
+          <t>9223 0316 7499 8612 6456</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C3" s="22" t="inlineStr">
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2437,15 +2480,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C4" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2456,15 +2499,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C5" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2475,15 +2518,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C6" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C6" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2494,15 +2537,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C7" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C7" s="22" t="inlineStr">
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2510,18 +2572,18 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C8" s="20" t="inlineStr">
+      <c r="C9" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2529,18 +2591,18 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C9" s="18" t="inlineStr">
+      <c r="C10" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2548,18 +2610,18 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C10" s="16" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2567,18 +2629,18 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="C12" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,7 +599,7 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16/11/2025 (Sun)</t>
+          <t>19/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
@@ -614,10 +614,32 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>16/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>0 7 2 1
+3 2 1 4
+4 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 6/226 (2.65%)
+▶ Direct: 6/4302 (0.14%)
+▶ Total Sets hit: 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -713,7 +735,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -735,7 +757,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -757,7 +779,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -779,7 +801,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -801,7 +823,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -823,7 +845,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -845,7 +867,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -853,13 +875,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -867,7 +889,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -875,17 +897,17 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="1" t="n"/>
-    </row>
     <row r="16">
-      <c r="B16" s="1" t="n"/>
+      <c r="B16" s="4" t="n"/>
       <c r="C16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -931,10 +953,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>7 1 9 6
+1 4 6 8
+4 2 3 3
+2 8 0 5</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 15/3672 (0.41%)
+✅ iBet: 15/195 (7.69%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>8 7 0 1
 9 8 5 9
@@ -942,20 +985,20 @@
 1 2 6 3</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4128 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -963,20 +1006,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -984,20 +1027,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -1005,20 +1048,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -1026,20 +1069,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1047,20 +1090,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1068,20 +1111,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1089,20 +1132,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1110,20 +1153,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1131,20 +1174,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1152,20 +1195,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1173,20 +1216,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1194,20 +1237,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1215,20 +1258,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1236,20 +1279,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1257,20 +1300,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1278,20 +1321,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1299,20 +1342,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1320,20 +1363,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1341,20 +1384,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1362,20 +1405,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1383,20 +1426,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1404,20 +1447,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1425,20 +1468,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1446,20 +1489,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1467,20 +1510,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1488,20 +1531,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1509,20 +1552,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1530,20 +1573,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1551,20 +1594,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1572,20 +1615,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1593,20 +1636,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1614,20 +1657,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1635,20 +1678,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1656,20 +1699,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1677,20 +1720,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1698,20 +1741,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1719,20 +1762,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1740,20 +1783,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1761,20 +1804,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1782,20 +1825,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1803,20 +1846,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1824,20 +1867,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1845,20 +1888,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1866,20 +1909,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1887,20 +1930,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1908,20 +1951,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1929,20 +1972,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1950,20 +1993,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -1971,20 +2014,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -1992,20 +2035,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -2013,20 +2056,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -2034,20 +2077,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -2055,20 +2098,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -2076,20 +2119,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2097,20 +2140,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2118,20 +2161,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2139,20 +2182,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2160,20 +2203,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2181,20 +2224,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2202,20 +2245,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2223,20 +2266,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2244,20 +2287,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2265,20 +2308,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2286,20 +2329,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2307,16 +2350,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="1" t="n"/>
@@ -2328,6 +2367,7 @@
     </row>
     <row r="71">
       <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="1" t="n"/>
@@ -2403,6 +2443,9 @@
     </row>
     <row r="96">
       <c r="B96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2415,7 +2458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2448,28 +2491,28 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16/11/2025 (Sun)</t>
+          <t>19/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9223 0316 7499 8612 6456</t>
-        </is>
-      </c>
-      <c r="C2" s="17" t="inlineStr"/>
+          <t>1396 9223 0316 8612 7499</t>
+        </is>
+      </c>
+      <c r="C2" s="19" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15/11/2025 (Sat)</t>
+          <t>16/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9223 0316 8612 7499 6456</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
+          <t>9223 0316 7499 8612 6456</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2480,15 +2523,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C4" s="22" t="inlineStr">
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2499,15 +2542,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C5" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2518,15 +2561,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C6" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2537,15 +2580,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C7" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C7" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2556,15 +2599,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C8" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C8" s="22" t="inlineStr">
+      <c r="C9" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2572,18 +2634,18 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2591,18 +2653,18 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C10" s="18" t="inlineStr">
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2610,18 +2672,18 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2629,18 +2691,18 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>0 4 2 1
+3 2 1 4
+7 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -610,14 +625,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 11/226 (4.87%)
+▶ Direct: 11/4302 (0.26%)
+▶ Total Sets hit: 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 6/226 (2.65%)
 ▶ Direct: 6/4302 (0.14%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -735,7 +757,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -757,7 +779,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -779,7 +801,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -801,7 +823,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -823,7 +845,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -845,7 +867,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -853,13 +875,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -867,7 +889,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -875,13 +897,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -889,7 +911,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -897,17 +919,17 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="1" t="n"/>
-    </row>
     <row r="17">
-      <c r="B17" s="1" t="n"/>
+      <c r="B17" s="4" t="n"/>
       <c r="C17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -920,7 +942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -953,10 +975,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>2 4 3 1
+8 7 1 3
+9 5 5 8
+4 0 6 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 9/3828 (0.24%)
+✅ iBet: 9/205 (4.39%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>7 1 9 6
 1 4 6 8
@@ -964,20 +1007,20 @@
 2 8 0 5</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/3672 (0.41%)
 ✅ iBet: 15/195 (7.69%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>8 7 0 1
 9 8 5 9
@@ -985,20 +1028,20 @@
 1 2 6 3</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4128 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -1006,20 +1049,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -1027,20 +1070,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -1048,20 +1091,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -1069,20 +1112,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1090,20 +1133,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1111,20 +1154,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1132,20 +1175,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1153,20 +1196,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr">
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1174,20 +1217,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1195,20 +1238,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1216,20 +1259,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1237,20 +1280,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1258,20 +1301,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1279,20 +1322,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1300,20 +1343,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1321,20 +1364,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1342,20 +1385,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1363,20 +1406,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1384,20 +1427,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1405,20 +1448,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1426,20 +1469,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1447,20 +1490,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1468,20 +1511,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1489,20 +1532,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1510,20 +1553,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1531,20 +1574,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1552,20 +1595,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1573,20 +1616,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1594,20 +1637,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1615,20 +1658,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1636,20 +1679,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1657,20 +1700,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1678,20 +1721,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1699,20 +1742,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1720,20 +1763,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1741,20 +1784,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1762,20 +1805,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1783,20 +1826,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1804,20 +1847,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1825,20 +1868,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1846,20 +1889,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1867,20 +1910,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1888,20 +1931,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1909,20 +1952,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1930,20 +1973,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1951,20 +1994,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -1972,20 +2015,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -1993,20 +2036,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -2014,20 +2057,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -2035,20 +2078,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -2056,20 +2099,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -2077,20 +2120,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -2098,20 +2141,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -2119,20 +2162,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2140,20 +2183,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2161,20 +2204,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2182,20 +2225,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2203,20 +2246,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2224,20 +2267,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2245,20 +2288,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2266,20 +2309,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2287,20 +2330,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2308,20 +2351,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2329,20 +2372,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="60" customHeight="1">
-      <c r="A68" t="inlineStr">
+    <row r="69" ht="60" customHeight="1">
+      <c r="A69" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B68" s="8" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2350,16 +2393,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="1" t="n"/>
@@ -2371,6 +2410,7 @@
     </row>
     <row r="72">
       <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="1" t="n"/>
@@ -2446,6 +2486,9 @@
     </row>
     <row r="97">
       <c r="B97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2458,7 +2501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2491,7 +2534,7 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19/11/2025 (Wed)</t>
+          <t>22/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2499,20 +2542,20 @@
           <t>1396 9223 0316 8612 7499</t>
         </is>
       </c>
-      <c r="C2" s="19" t="inlineStr"/>
+      <c r="C2" s="21" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16/11/2025 (Sun)</t>
+          <t>19/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9223 0316 7499 8612 6456</t>
-        </is>
-      </c>
-      <c r="C3" s="18" t="inlineStr">
+          <t>1396 9223 0316 8612 7499</t>
+        </is>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2523,15 +2566,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15/11/2025 (Sat)</t>
+          <t>16/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9223 0316 8612 7499 6456</t>
-        </is>
-      </c>
-      <c r="C4" s="16" t="inlineStr">
+          <t>9223 0316 7499 8612 6456</t>
+        </is>
+      </c>
+      <c r="C4" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2542,15 +2585,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C5" s="22" t="inlineStr">
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2561,15 +2604,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C6" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2580,15 +2623,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C7" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2599,15 +2642,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C8" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C8" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2618,15 +2661,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C9" s="22" t="inlineStr">
+      <c r="C10" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2634,18 +2696,18 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C10" s="20" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2653,18 +2715,18 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C11" s="18" t="inlineStr">
+      <c r="C12" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2672,18 +2734,18 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C12" s="16" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2691,18 +2753,18 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,7 +599,7 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22/11/2025 (Sat)</t>
+          <t>23/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
@@ -614,10 +614,32 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>0 4 2 1
+3 2 1 4
+7 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 10/237 (4.22%)
+▶ Direct: 10/4554 (0.22%)
+▶ Total Sets hit: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/226 (4.87%)
 ▶ Direct: 11/4302 (0.26%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 6/226 (2.65%)
 ▶ Direct: 6/4302 (0.14%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -757,7 +779,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -779,7 +801,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -801,7 +823,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -823,7 +845,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -845,7 +867,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -853,13 +875,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -867,7 +889,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -875,13 +897,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -889,7 +911,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -897,13 +919,13 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -911,7 +933,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -919,17 +941,17 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="1" t="n"/>
-    </row>
     <row r="18">
-      <c r="B18" s="1" t="n"/>
+      <c r="B18" s="4" t="n"/>
       <c r="C18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -942,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -975,10 +997,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>8 8 3 2
+5 7 7 4
+9 5 2 0
+3 9 1 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/3606 (0.28%)
+✅ iBet: 10/196 (5.10%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>2 4 3 1
 8 7 1 3
@@ -986,20 +1029,20 @@
 4 0 6 6</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3828 (0.24%)
 ✅ iBet: 9/205 (4.39%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>7 1 9 6
 1 4 6 8
@@ -1007,20 +1050,20 @@
 2 8 0 5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/3672 (0.41%)
 ✅ iBet: 15/195 (7.69%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>8 7 0 1
 9 8 5 9
@@ -1028,20 +1071,20 @@
 1 2 6 3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4128 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -1049,20 +1092,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -1070,20 +1113,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -1091,20 +1134,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -1112,20 +1155,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1133,20 +1176,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1154,20 +1197,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1175,20 +1218,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1196,20 +1239,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="11" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1217,20 +1260,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1238,20 +1281,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1259,20 +1302,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1280,20 +1323,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1301,20 +1344,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1322,20 +1365,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1343,20 +1386,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1364,20 +1407,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1385,20 +1428,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1406,20 +1449,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1427,20 +1470,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1448,20 +1491,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1469,20 +1512,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1490,20 +1533,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1511,20 +1554,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1532,20 +1575,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1553,20 +1596,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1574,20 +1617,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1595,20 +1638,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1616,20 +1659,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1637,20 +1680,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1658,20 +1701,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1679,20 +1722,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1700,20 +1743,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1721,20 +1764,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1742,20 +1785,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1763,20 +1806,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1784,20 +1827,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1805,20 +1848,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1826,20 +1869,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1847,20 +1890,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1868,20 +1911,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1889,20 +1932,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1910,20 +1953,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1931,20 +1974,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1952,20 +1995,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -1973,20 +2016,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -1994,20 +2037,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -2015,20 +2058,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -2036,20 +2079,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -2057,20 +2100,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -2078,20 +2121,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -2099,20 +2142,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -2120,20 +2163,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -2141,20 +2184,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -2162,20 +2205,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2183,20 +2226,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2204,20 +2247,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2225,20 +2268,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2246,20 +2289,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2267,20 +2310,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2288,20 +2331,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2309,20 +2352,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2330,20 +2373,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2351,20 +2394,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="60" customHeight="1">
-      <c r="A68" t="inlineStr">
+    <row r="69" ht="60" customHeight="1">
+      <c r="A69" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B68" s="8" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2372,20 +2415,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="60" customHeight="1">
-      <c r="A69" t="inlineStr">
+    <row r="70" ht="60" customHeight="1">
+      <c r="A70" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B69" s="8" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2393,16 +2436,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="1" t="n"/>
@@ -2414,6 +2453,7 @@
     </row>
     <row r="73">
       <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="1" t="n"/>
@@ -2489,6 +2529,9 @@
     </row>
     <row r="98">
       <c r="B98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2501,7 +2544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2534,20 +2577,20 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22/11/2025 (Sat)</t>
+          <t>23/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1396 9223 0316 8612 7499</t>
-        </is>
-      </c>
-      <c r="C2" s="21" t="inlineStr"/>
+          <t>8590 1396 9223 3378 0316</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19/11/2025 (Wed)</t>
+          <t>22/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2555,7 +2598,7 @@
           <t>1396 9223 0316 8612 7499</t>
         </is>
       </c>
-      <c r="C3" s="20" t="inlineStr">
+      <c r="C3" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2566,15 +2609,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16/11/2025 (Sun)</t>
+          <t>19/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9223 0316 7499 8612 6456</t>
-        </is>
-      </c>
-      <c r="C4" s="18" t="inlineStr">
+          <t>1396 9223 0316 8612 7499</t>
+        </is>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2585,15 +2628,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15/11/2025 (Sat)</t>
+          <t>16/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9223 0316 8612 7499 6456</t>
-        </is>
-      </c>
-      <c r="C5" s="16" t="inlineStr">
+          <t>9223 0316 7499 8612 6456</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2604,15 +2647,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C6" s="22" t="inlineStr">
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2623,15 +2666,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C7" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2642,15 +2685,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C8" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2661,15 +2704,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C9" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C9" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2680,15 +2723,34 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C10" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C10" s="22" t="inlineStr">
+      <c r="C11" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2696,18 +2758,18 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C11" s="20" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2715,18 +2777,18 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C12" s="18" t="inlineStr">
+      <c r="C13" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2734,18 +2796,18 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C14" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2753,18 +2815,18 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C15" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>0 7 2 1
+3 2 1 4
+4 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -610,14 +625,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 11/237 (4.64%)
+▶ Direct: 11/4554 (0.24%)
+▶ Total Sets hit: 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 10/237 (4.22%)
 ▶ Direct: 10/4554 (0.22%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/226 (4.87%)
 ▶ Direct: 11/4302 (0.26%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 6/226 (2.65%)
 ▶ Direct: 6/4302 (0.14%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -779,7 +801,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -801,7 +823,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -823,7 +845,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="15" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -845,7 +867,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -853,13 +875,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -867,7 +889,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -875,13 +897,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -889,7 +911,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -897,13 +919,13 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -911,7 +933,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -919,13 +941,13 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -933,7 +955,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -941,17 +963,17 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="1" t="n"/>
-    </row>
     <row r="19">
-      <c r="B19" s="1" t="n"/>
+      <c r="B19" s="4" t="n"/>
       <c r="C19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -964,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -997,10 +1019,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>4 7 5 5
+7 3 2 0
+3 8 8 6
+6 2 9 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 15/4176 (0.36%)
+✅ iBet: 15/220 (6.82%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>8 8 3 2
 5 7 7 4
@@ -1008,20 +1051,20 @@
 3 9 1 6</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3606 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>2 4 3 1
 8 7 1 3
@@ -1029,20 +1072,20 @@
 4 0 6 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3828 (0.24%)
 ✅ iBet: 9/205 (4.39%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>7 1 9 6
 1 4 6 8
@@ -1050,20 +1093,20 @@
 2 8 0 5</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/3672 (0.41%)
 ✅ iBet: 15/195 (7.69%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>8 7 0 1
 9 8 5 9
@@ -1071,20 +1114,20 @@
 1 2 6 3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4128 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -1092,20 +1135,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -1113,20 +1156,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -1134,20 +1177,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -1155,20 +1198,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1176,20 +1219,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1197,20 +1240,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1218,20 +1261,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1239,20 +1282,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1260,20 +1303,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1281,20 +1324,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1302,20 +1345,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1323,20 +1366,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1344,20 +1387,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1365,20 +1408,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1386,20 +1429,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1407,20 +1450,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1428,20 +1471,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1449,20 +1492,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1470,20 +1513,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1491,20 +1534,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1512,20 +1555,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1533,20 +1576,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1554,20 +1597,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1575,20 +1618,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1596,20 +1639,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1617,20 +1660,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1638,20 +1681,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1659,20 +1702,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1680,20 +1723,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1701,20 +1744,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1722,20 +1765,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1743,20 +1786,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1764,20 +1807,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1785,20 +1828,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1806,20 +1849,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1827,20 +1870,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1848,20 +1891,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1869,20 +1912,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1890,20 +1933,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1911,20 +1954,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1932,20 +1975,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1953,20 +1996,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -1974,20 +2017,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -1995,20 +2038,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -2016,20 +2059,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -2037,20 +2080,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -2058,20 +2101,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -2079,20 +2122,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -2100,20 +2143,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -2121,20 +2164,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -2142,20 +2185,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -2163,20 +2206,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -2184,20 +2227,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -2205,20 +2248,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2226,20 +2269,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2247,20 +2290,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2268,20 +2311,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2289,20 +2332,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2310,20 +2353,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2331,20 +2374,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2352,20 +2395,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2373,20 +2416,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="60" customHeight="1">
-      <c r="A68" t="inlineStr">
+    <row r="69" ht="60" customHeight="1">
+      <c r="A69" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B68" s="8" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2394,20 +2437,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="60" customHeight="1">
-      <c r="A69" t="inlineStr">
+    <row r="70" ht="60" customHeight="1">
+      <c r="A70" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B69" s="8" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2415,20 +2458,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="60" customHeight="1">
-      <c r="A70" t="inlineStr">
+    <row r="71" ht="60" customHeight="1">
+      <c r="A71" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B70" s="8" t="inlineStr">
+      <c r="B71" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2436,16 +2479,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="C71" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="1" t="n"/>
@@ -2457,6 +2496,7 @@
     </row>
     <row r="74">
       <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="1" t="n"/>
@@ -2532,6 +2572,9 @@
     </row>
     <row r="99">
       <c r="B99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2544,7 +2587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2577,28 +2620,28 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23/11/2025 (Sun)</t>
+          <t>26/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8590 1396 9223 3378 0316</t>
-        </is>
-      </c>
-      <c r="C2" s="23" t="inlineStr"/>
+          <t>6276 7295 8590 1396 9223</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22/11/2025 (Sat)</t>
+          <t>23/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1396 9223 0316 8612 7499</t>
-        </is>
-      </c>
-      <c r="C3" s="22" t="inlineStr">
+          <t>8590 1396 9223 3378 0316</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2609,7 +2652,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19/11/2025 (Wed)</t>
+          <t>22/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2617,7 +2660,7 @@
           <t>1396 9223 0316 8612 7499</t>
         </is>
       </c>
-      <c r="C4" s="20" t="inlineStr">
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2628,15 +2671,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16/11/2025 (Sun)</t>
+          <t>19/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9223 0316 7499 8612 6456</t>
-        </is>
-      </c>
-      <c r="C5" s="18" t="inlineStr">
+          <t>1396 9223 0316 8612 7499</t>
+        </is>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2647,15 +2690,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15/11/2025 (Sat)</t>
+          <t>16/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9223 0316 8612 7499 6456</t>
-        </is>
-      </c>
-      <c r="C6" s="16" t="inlineStr">
+          <t>9223 0316 7499 8612 6456</t>
+        </is>
+      </c>
+      <c r="C6" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2666,15 +2709,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C7" s="22" t="inlineStr">
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2685,15 +2728,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C8" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2704,15 +2747,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C9" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2723,15 +2766,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C10" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C10" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2742,15 +2785,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C11" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C11" s="22" t="inlineStr">
+      <c r="C12" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2758,18 +2820,18 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C12" s="20" t="inlineStr">
+      <c r="C13" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2777,18 +2839,18 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C13" s="18" t="inlineStr">
+      <c r="C14" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2796,18 +2858,18 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C15" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2815,18 +2877,18 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>8 7 2 1
+0 2 1 4
+4 5 9 8
+5 3 0 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>26/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -610,14 +625,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 9/226 (3.98%)
+▶ Direct: 9/4302 (0.21%)
+▶ Total Sets hit: 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/237 (4.64%)
 ▶ Direct: 11/4554 (0.24%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 10/237 (4.22%)
 ▶ Direct: 10/4554 (0.22%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/226 (4.87%)
 ▶ Direct: 11/4302 (0.26%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 6/226 (2.65%)
 ▶ Direct: 6/4302 (0.14%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -779,7 +801,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -801,7 +823,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -823,7 +845,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="15" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -845,7 +867,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -853,13 +875,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="15" t="inlineStr">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -867,7 +889,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -875,13 +897,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -889,7 +911,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -897,13 +919,13 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -911,7 +933,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -919,13 +941,13 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -933,7 +955,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -941,13 +963,13 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -955,7 +977,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -963,17 +985,17 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="1" t="n"/>
-    </row>
     <row r="20">
-      <c r="B20" s="1" t="n"/>
+      <c r="B20" s="4" t="n"/>
       <c r="C20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -986,7 +1008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1019,10 +1041,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>8 9 3 4
+5 2 7 6
+0 6 2 9
+4 3 0 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 7/4176 (0.17%)
+✅ iBet: 7/220 (3.18%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>4 7 5 5
 7 3 2 0
@@ -1030,20 +1073,20 @@
 6 2 9 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4176 (0.36%)
 ✅ iBet: 15/220 (6.82%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>8 8 3 2
 5 7 7 4
@@ -1051,20 +1094,20 @@
 3 9 1 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3606 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>2 4 3 1
 8 7 1 3
@@ -1072,20 +1115,20 @@
 4 0 6 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3828 (0.24%)
 ✅ iBet: 9/205 (4.39%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>7 1 9 6
 1 4 6 8
@@ -1093,20 +1136,20 @@
 2 8 0 5</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/3672 (0.41%)
 ✅ iBet: 15/195 (7.69%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>8 7 0 1
 9 8 5 9
@@ -1114,20 +1157,20 @@
 1 2 6 3</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4128 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -1135,20 +1178,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -1156,20 +1199,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -1177,20 +1220,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -1198,20 +1241,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1219,20 +1262,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1240,20 +1283,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1261,20 +1304,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1282,20 +1325,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1303,20 +1346,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1324,20 +1367,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1345,20 +1388,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1366,20 +1409,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1387,20 +1430,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1408,20 +1451,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1429,20 +1472,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1450,20 +1493,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1471,20 +1514,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1492,20 +1535,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1513,20 +1556,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1534,20 +1577,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1555,20 +1598,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1576,20 +1619,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1597,20 +1640,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1618,20 +1661,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1639,20 +1682,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1660,20 +1703,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1681,20 +1724,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1702,20 +1745,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1723,20 +1766,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1744,20 +1787,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1765,20 +1808,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1786,20 +1829,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1807,20 +1850,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1828,20 +1871,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1849,20 +1892,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1870,20 +1913,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1891,20 +1934,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1912,20 +1955,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1933,20 +1976,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1954,20 +1997,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -1975,20 +2018,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -1996,20 +2039,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -2017,20 +2060,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -2038,20 +2081,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -2059,20 +2102,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -2080,20 +2123,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -2101,20 +2144,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -2122,20 +2165,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -2143,20 +2186,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -2164,20 +2207,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -2185,20 +2228,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -2206,20 +2249,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -2227,20 +2270,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -2248,20 +2291,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2269,20 +2312,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2290,20 +2333,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2311,20 +2354,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2332,20 +2375,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2353,20 +2396,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2374,20 +2417,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2395,20 +2438,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="60" customHeight="1">
-      <c r="A68" t="inlineStr">
+    <row r="69" ht="60" customHeight="1">
+      <c r="A69" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B68" s="8" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2416,20 +2459,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="60" customHeight="1">
-      <c r="A69" t="inlineStr">
+    <row r="70" ht="60" customHeight="1">
+      <c r="A70" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B69" s="8" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2437,20 +2480,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="60" customHeight="1">
-      <c r="A70" t="inlineStr">
+    <row r="71" ht="60" customHeight="1">
+      <c r="A71" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B70" s="8" t="inlineStr">
+      <c r="B71" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2458,20 +2501,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="C71" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="60" customHeight="1">
-      <c r="A71" t="inlineStr">
+    <row r="72" ht="60" customHeight="1">
+      <c r="A72" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B71" s="8" t="inlineStr">
+      <c r="B72" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2479,16 +2522,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C71" s="1" t="inlineStr">
+      <c r="C72" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="1" t="n"/>
@@ -2500,6 +2539,7 @@
     </row>
     <row r="75">
       <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="1" t="n"/>
@@ -2575,6 +2615,9 @@
     </row>
     <row r="100">
       <c r="B100" s="1" t="n"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2587,7 +2630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2620,7 +2663,7 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26/11/2025 (Wed)</t>
+          <t>29/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2628,20 +2671,20 @@
           <t>6276 7295 8590 1396 9223</t>
         </is>
       </c>
-      <c r="C2" s="17" t="inlineStr"/>
+      <c r="C2" s="19" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23/11/2025 (Sun)</t>
+          <t>26/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8590 1396 9223 3378 0316</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
+          <t>6276 7295 8590 1396 9223</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2652,15 +2695,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22/11/2025 (Sat)</t>
+          <t>23/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1396 9223 0316 8612 7499</t>
-        </is>
-      </c>
-      <c r="C4" s="22" t="inlineStr">
+          <t>8590 1396 9223 3378 0316</t>
+        </is>
+      </c>
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2671,7 +2714,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19/11/2025 (Wed)</t>
+          <t>22/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2679,7 +2722,7 @@
           <t>1396 9223 0316 8612 7499</t>
         </is>
       </c>
-      <c r="C5" s="20" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2690,15 +2733,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16/11/2025 (Sun)</t>
+          <t>19/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9223 0316 7499 8612 6456</t>
-        </is>
-      </c>
-      <c r="C6" s="18" t="inlineStr">
+          <t>1396 9223 0316 8612 7499</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2709,15 +2752,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15/11/2025 (Sat)</t>
+          <t>16/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9223 0316 8612 7499 6456</t>
-        </is>
-      </c>
-      <c r="C7" s="16" t="inlineStr">
+          <t>9223 0316 7499 8612 6456</t>
+        </is>
+      </c>
+      <c r="C7" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2728,15 +2771,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C8" s="22" t="inlineStr">
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2747,15 +2790,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C9" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C9" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2766,15 +2809,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C10" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2785,15 +2828,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C11" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2804,15 +2847,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C12" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C12" s="22" t="inlineStr">
+      <c r="C13" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2820,18 +2882,18 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C13" s="20" t="inlineStr">
+      <c r="C14" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2839,18 +2901,18 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C14" s="18" t="inlineStr">
+      <c r="C15" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2858,18 +2920,18 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C15" s="16" t="inlineStr">
+      <c r="C16" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2877,18 +2939,18 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C16" s="10" t="inlineStr">
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>8 7 2 1
+0 2 1 4
+4 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>29/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>8 7 2 1
 0 2 1 4
@@ -610,14 +625,21 @@
 5 3 0 6</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 8/226 (3.54%)
+▶ Direct: 8/4302 (0.19%)
+▶ Total Sets hit: 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>26/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/226 (3.98%)
 ▶ Direct: 9/4302 (0.21%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/237 (4.64%)
 ▶ Direct: 11/4554 (0.24%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 10/237 (4.22%)
 ▶ Direct: 10/4554 (0.22%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/226 (4.87%)
 ▶ Direct: 11/4302 (0.26%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 6/226 (2.65%)
 ▶ Direct: 6/4302 (0.14%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -779,7 +801,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -801,7 +823,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -823,7 +845,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="15" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -845,7 +867,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -853,13 +875,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="15" t="inlineStr">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -867,7 +889,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -875,13 +897,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="15" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -889,7 +911,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -897,13 +919,13 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -911,7 +933,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -919,13 +941,13 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -933,7 +955,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -941,13 +963,13 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -955,7 +977,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -963,13 +985,13 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -977,7 +999,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -985,17 +1007,17 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="1" t="n"/>
-    </row>
     <row r="21">
-      <c r="B21" s="1" t="n"/>
+      <c r="B21" s="4" t="n"/>
       <c r="C21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1008,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1041,10 +1063,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29/11/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>8 3 1 8
+2 7 4 6
+5 4 5 3
+9 6 7 0</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/4176 (0.24%)
+✅ iBet: 10/220 (4.55%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>26/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>8 9 3 4
 5 2 7 6
@@ -1052,20 +1095,20 @@
 4 3 0 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 7/4176 (0.17%)
 ✅ iBet: 7/220 (3.18%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>4 7 5 5
 7 3 2 0
@@ -1073,20 +1116,20 @@
 6 2 9 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4176 (0.36%)
 ✅ iBet: 15/220 (6.82%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>8 8 3 2
 5 7 7 4
@@ -1094,20 +1137,20 @@
 3 9 1 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3606 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>2 4 3 1
 8 7 1 3
@@ -1115,20 +1158,20 @@
 4 0 6 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3828 (0.24%)
 ✅ iBet: 9/205 (4.39%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>7 1 9 6
 1 4 6 8
@@ -1136,20 +1179,20 @@
 2 8 0 5</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/3672 (0.41%)
 ✅ iBet: 15/195 (7.69%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>8 7 0 1
 9 8 5 9
@@ -1157,20 +1200,20 @@
 1 2 6 3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4128 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -1178,20 +1221,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -1199,20 +1242,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -1220,20 +1263,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -1241,20 +1284,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1262,20 +1305,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1283,20 +1326,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1304,20 +1347,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="14" t="inlineStr">
+      <c r="B16" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1325,20 +1368,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr">
+      <c r="B17" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1346,20 +1389,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1367,20 +1410,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1388,20 +1431,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1409,20 +1452,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1430,20 +1473,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1451,20 +1494,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1472,20 +1515,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1493,20 +1536,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1514,20 +1557,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1535,20 +1578,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1556,20 +1599,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1577,20 +1620,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1598,20 +1641,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1619,20 +1662,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1640,20 +1683,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1661,20 +1704,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1682,20 +1725,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1703,20 +1746,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1724,20 +1767,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1745,20 +1788,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1766,20 +1809,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1787,20 +1830,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1808,20 +1851,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1829,20 +1872,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1850,20 +1893,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1871,20 +1914,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1892,20 +1935,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1913,20 +1956,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1934,20 +1977,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1955,20 +1998,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -1976,20 +2019,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -1997,20 +2040,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -2018,20 +2061,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -2039,20 +2082,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -2060,20 +2103,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -2081,20 +2124,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -2102,20 +2145,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -2123,20 +2166,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -2144,20 +2187,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -2165,20 +2208,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -2186,20 +2229,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -2207,20 +2250,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -2228,20 +2271,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -2249,20 +2292,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -2270,20 +2313,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -2291,20 +2334,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2312,20 +2355,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2333,20 +2376,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2354,20 +2397,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2375,20 +2418,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2396,20 +2439,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2417,20 +2460,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="60" customHeight="1">
-      <c r="A68" t="inlineStr">
+    <row r="69" ht="60" customHeight="1">
+      <c r="A69" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B68" s="8" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2438,20 +2481,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="60" customHeight="1">
-      <c r="A69" t="inlineStr">
+    <row r="70" ht="60" customHeight="1">
+      <c r="A70" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B69" s="8" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2459,20 +2502,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="60" customHeight="1">
-      <c r="A70" t="inlineStr">
+    <row r="71" ht="60" customHeight="1">
+      <c r="A71" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B70" s="8" t="inlineStr">
+      <c r="B71" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2480,20 +2523,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="C71" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="60" customHeight="1">
-      <c r="A71" t="inlineStr">
+    <row r="72" ht="60" customHeight="1">
+      <c r="A72" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B71" s="8" t="inlineStr">
+      <c r="B72" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2501,20 +2544,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C71" s="1" t="inlineStr">
+      <c r="C72" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="60" customHeight="1">
-      <c r="A72" t="inlineStr">
+    <row r="73" ht="60" customHeight="1">
+      <c r="A73" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B72" s="8" t="inlineStr">
+      <c r="B73" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2522,16 +2565,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C72" s="1" t="inlineStr">
+      <c r="C73" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="1" t="n"/>
@@ -2543,6 +2582,7 @@
     </row>
     <row r="76">
       <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
     </row>
     <row r="77">
       <c r="B77" s="1" t="n"/>
@@ -2618,6 +2658,9 @@
     </row>
     <row r="101">
       <c r="B101" s="1" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2630,7 +2673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2663,20 +2706,20 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29/11/2025 (Sat)</t>
+          <t>30/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6276 7295 8590 1396 9223</t>
-        </is>
-      </c>
-      <c r="C2" s="19" t="inlineStr"/>
+          <t>6276 7295 7352 8590 1396</t>
+        </is>
+      </c>
+      <c r="C2" s="21" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26/11/2025 (Wed)</t>
+          <t>29/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2684,7 +2727,7 @@
           <t>6276 7295 8590 1396 9223</t>
         </is>
       </c>
-      <c r="C3" s="18" t="inlineStr">
+      <c r="C3" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2695,15 +2738,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23/11/2025 (Sun)</t>
+          <t>26/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8590 1396 9223 3378 0316</t>
-        </is>
-      </c>
-      <c r="C4" s="16" t="inlineStr">
+          <t>6276 7295 8590 1396 9223</t>
+        </is>
+      </c>
+      <c r="C4" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2714,15 +2757,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22/11/2025 (Sat)</t>
+          <t>23/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1396 9223 0316 8612 7499</t>
-        </is>
-      </c>
-      <c r="C5" s="22" t="inlineStr">
+          <t>8590 1396 9223 3378 0316</t>
+        </is>
+      </c>
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2733,7 +2776,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19/11/2025 (Wed)</t>
+          <t>22/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2741,7 +2784,7 @@
           <t>1396 9223 0316 8612 7499</t>
         </is>
       </c>
-      <c r="C6" s="20" t="inlineStr">
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2752,15 +2795,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16/11/2025 (Sun)</t>
+          <t>19/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9223 0316 7499 8612 6456</t>
-        </is>
-      </c>
-      <c r="C7" s="18" t="inlineStr">
+          <t>1396 9223 0316 8612 7499</t>
+        </is>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2771,15 +2814,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15/11/2025 (Sat)</t>
+          <t>16/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9223 0316 8612 7499 6456</t>
-        </is>
-      </c>
-      <c r="C8" s="16" t="inlineStr">
+          <t>9223 0316 7499 8612 6456</t>
+        </is>
+      </c>
+      <c r="C8" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2790,15 +2833,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C9" s="22" t="inlineStr">
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2809,15 +2852,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C10" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C10" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2828,15 +2871,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C11" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2847,15 +2890,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C12" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C12" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2866,15 +2909,34 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C13" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C13" s="22" t="inlineStr">
+      <c r="C14" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2882,18 +2944,18 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C14" s="20" t="inlineStr">
+      <c r="C15" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2901,18 +2963,18 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C15" s="18" t="inlineStr">
+      <c r="C16" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2920,18 +2982,18 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C17" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2939,18 +3001,18 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C17" s="10" t="inlineStr">
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03/12/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>8 7 2 1
+0 2 1 6
+4 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>30/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>8 7 2 1
 0 2 1 4
@@ -610,14 +625,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 13/205 (6.34%)
+▶ Direct: 13/3828 (0.34%)
+▶ Total Sets hit: 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>29/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>8 7 2 1
 0 2 1 4
@@ -625,7 +647,7 @@
 5 3 0 6</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>26/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/226 (3.98%)
 ▶ Direct: 9/4302 (0.21%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/237 (4.64%)
 ▶ Direct: 11/4554 (0.24%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 10/237 (4.22%)
 ▶ Direct: 10/4554 (0.22%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/226 (4.87%)
 ▶ Direct: 11/4302 (0.26%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 6/226 (2.65%)
 ▶ Direct: 6/4302 (0.14%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -779,7 +801,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -801,7 +823,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -823,7 +845,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="15" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -845,7 +867,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -853,13 +875,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="15" t="inlineStr">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -867,7 +889,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -875,13 +897,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="15" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -889,7 +911,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -897,13 +919,13 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -911,7 +933,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -919,13 +941,13 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="12" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -933,7 +955,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -941,13 +963,13 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -955,7 +977,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -963,13 +985,13 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -977,7 +999,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -985,13 +1007,13 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -999,7 +1021,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -1007,17 +1029,17 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="1" t="n"/>
-    </row>
     <row r="22">
-      <c r="B22" s="1" t="n"/>
+      <c r="B22" s="4" t="n"/>
       <c r="C22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1030,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1063,10 +1085,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/11/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>1 2 3 7
+6 3 9 6
+4 0 8 1
+7 4 0 5</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 13/3672 (0.35%)
+✅ iBet: 13/195 (6.67%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>29/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>8 3 1 8
 2 7 4 6
@@ -1074,20 +1117,20 @@
 9 6 7 0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4176 (0.24%)
 ✅ iBet: 10/220 (4.55%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>26/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>8 9 3 4
 5 2 7 6
@@ -1095,20 +1138,20 @@
 4 3 0 1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 7/4176 (0.17%)
 ✅ iBet: 7/220 (3.18%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>4 7 5 5
 7 3 2 0
@@ -1116,20 +1159,20 @@
 6 2 9 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4176 (0.36%)
 ✅ iBet: 15/220 (6.82%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>8 8 3 2
 5 7 7 4
@@ -1137,20 +1180,20 @@
 3 9 1 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3606 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>2 4 3 1
 8 7 1 3
@@ -1158,20 +1201,20 @@
 4 0 6 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3828 (0.24%)
 ✅ iBet: 9/205 (4.39%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>7 1 9 6
 1 4 6 8
@@ -1179,20 +1222,20 @@
 2 8 0 5</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/3672 (0.41%)
 ✅ iBet: 15/195 (7.69%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>8 7 0 1
 9 8 5 9
@@ -1200,20 +1243,20 @@
 1 2 6 3</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4128 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -1221,20 +1264,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -1242,20 +1285,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -1263,20 +1306,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -1284,20 +1327,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1305,20 +1348,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1326,20 +1369,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="14" t="inlineStr">
+      <c r="B16" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1347,20 +1390,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="14" t="inlineStr">
+      <c r="B17" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1368,20 +1411,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="11" t="inlineStr">
+      <c r="B18" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1389,20 +1432,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1410,20 +1453,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1431,20 +1474,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1452,20 +1495,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1473,20 +1516,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1494,20 +1537,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1515,20 +1558,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1536,20 +1579,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1557,20 +1600,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1578,20 +1621,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1599,20 +1642,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1620,20 +1663,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1641,20 +1684,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1662,20 +1705,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1683,20 +1726,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1704,20 +1747,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1725,20 +1768,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1746,20 +1789,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1767,20 +1810,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1788,20 +1831,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1809,20 +1852,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1830,20 +1873,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1851,20 +1894,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1872,20 +1915,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1893,20 +1936,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1914,20 +1957,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1935,20 +1978,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1956,20 +1999,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -1977,20 +2020,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -1998,20 +2041,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -2019,20 +2062,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -2040,20 +2083,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -2061,20 +2104,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -2082,20 +2125,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -2103,20 +2146,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -2124,20 +2167,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -2145,20 +2188,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -2166,20 +2209,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -2187,20 +2230,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -2208,20 +2251,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -2229,20 +2272,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -2250,20 +2293,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -2271,20 +2314,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -2292,20 +2335,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -2313,20 +2356,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -2334,20 +2377,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2355,20 +2398,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2376,20 +2419,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2397,20 +2440,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2418,20 +2461,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2439,20 +2482,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="60" customHeight="1">
-      <c r="A68" t="inlineStr">
+    <row r="69" ht="60" customHeight="1">
+      <c r="A69" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B68" s="8" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2460,20 +2503,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="60" customHeight="1">
-      <c r="A69" t="inlineStr">
+    <row r="70" ht="60" customHeight="1">
+      <c r="A70" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B69" s="8" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2481,20 +2524,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="60" customHeight="1">
-      <c r="A70" t="inlineStr">
+    <row r="71" ht="60" customHeight="1">
+      <c r="A71" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B70" s="8" t="inlineStr">
+      <c r="B71" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2502,20 +2545,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="C71" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="60" customHeight="1">
-      <c r="A71" t="inlineStr">
+    <row r="72" ht="60" customHeight="1">
+      <c r="A72" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B71" s="8" t="inlineStr">
+      <c r="B72" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2523,20 +2566,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C71" s="1" t="inlineStr">
+      <c r="C72" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="60" customHeight="1">
-      <c r="A72" t="inlineStr">
+    <row r="73" ht="60" customHeight="1">
+      <c r="A73" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B72" s="8" t="inlineStr">
+      <c r="B73" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2544,20 +2587,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C72" s="1" t="inlineStr">
+      <c r="C73" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="60" customHeight="1">
-      <c r="A73" t="inlineStr">
+    <row r="74" ht="60" customHeight="1">
+      <c r="A74" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B73" s="8" t="inlineStr">
+      <c r="B74" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2565,16 +2608,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C73" s="1" t="inlineStr">
+      <c r="C74" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="1" t="n"/>
@@ -2586,6 +2625,7 @@
     </row>
     <row r="77">
       <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
     </row>
     <row r="78">
       <c r="B78" s="1" t="n"/>
@@ -2661,6 +2701,9 @@
     </row>
     <row r="102">
       <c r="B102" s="1" t="n"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2673,7 +2716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2706,28 +2749,28 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/11/2025 (Sun)</t>
+          <t>03/12/2025 (Wed)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6276 7295 7352 8590 1396</t>
-        </is>
-      </c>
-      <c r="C2" s="21" t="inlineStr"/>
+          <t>6276 7295 7352 8590 4987</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29/11/2025 (Sat)</t>
+          <t>30/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6276 7295 8590 1396 9223</t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
+          <t>6276 7295 7352 8590 1396</t>
+        </is>
+      </c>
+      <c r="C3" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2738,7 +2781,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26/11/2025 (Wed)</t>
+          <t>29/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2746,7 +2789,7 @@
           <t>6276 7295 8590 1396 9223</t>
         </is>
       </c>
-      <c r="C4" s="18" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2757,15 +2800,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23/11/2025 (Sun)</t>
+          <t>26/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8590 1396 9223 3378 0316</t>
-        </is>
-      </c>
-      <c r="C5" s="16" t="inlineStr">
+          <t>6276 7295 8590 1396 9223</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2776,15 +2819,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22/11/2025 (Sat)</t>
+          <t>23/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1396 9223 0316 8612 7499</t>
-        </is>
-      </c>
-      <c r="C6" s="22" t="inlineStr">
+          <t>8590 1396 9223 3378 0316</t>
+        </is>
+      </c>
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2795,7 +2838,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19/11/2025 (Wed)</t>
+          <t>22/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2803,7 +2846,7 @@
           <t>1396 9223 0316 8612 7499</t>
         </is>
       </c>
-      <c r="C7" s="20" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2814,15 +2857,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16/11/2025 (Sun)</t>
+          <t>19/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9223 0316 7499 8612 6456</t>
-        </is>
-      </c>
-      <c r="C8" s="18" t="inlineStr">
+          <t>1396 9223 0316 8612 7499</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2833,15 +2876,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15/11/2025 (Sat)</t>
+          <t>16/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9223 0316 8612 7499 6456</t>
-        </is>
-      </c>
-      <c r="C9" s="16" t="inlineStr">
+          <t>9223 0316 7499 8612 6456</t>
+        </is>
+      </c>
+      <c r="C9" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2852,15 +2895,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C10" s="22" t="inlineStr">
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2871,15 +2914,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C11" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C11" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2890,15 +2933,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C12" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2909,15 +2952,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C13" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C13" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2928,15 +2971,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C14" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C14" s="22" t="inlineStr">
+      <c r="C15" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -2944,18 +3006,18 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C15" s="20" t="inlineStr">
+      <c r="C16" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2963,18 +3025,18 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C16" s="18" t="inlineStr">
+      <c r="C17" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2982,18 +3044,18 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C17" s="16" t="inlineStr">
+      <c r="C18" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -3001,18 +3063,18 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C18" s="10" t="inlineStr">
+      <c r="C19" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,7 +599,7 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03/12/2025 (Wed)</t>
+          <t>06/12/2025 (Sat)</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
@@ -614,10 +614,32 @@
     <row r="3" ht="60" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03/12/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>8 7 2 1
+0 2 1 6
+4 5 9 8
+5 6 3 0</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 13/226 (5.75%)
+▶ Direct: 13/4302 (0.30%)
+▶ Total Sets hit: 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>30/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>8 7 2 1
 0 2 1 4
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/205 (6.34%)
 ▶ Direct: 13/3828 (0.34%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>29/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>8 7 2 1
 0 2 1 4
@@ -647,7 +669,7 @@
 5 3 0 6</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>26/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -669,7 +691,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/226 (3.98%)
 ▶ Direct: 9/4302 (0.21%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/237 (4.64%)
 ▶ Direct: 11/4554 (0.24%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 10/237 (4.22%)
 ▶ Direct: 10/4554 (0.22%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/226 (4.87%)
 ▶ Direct: 11/4302 (0.26%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 6/226 (2.65%)
 ▶ Direct: 6/4302 (0.14%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -779,7 +801,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -801,7 +823,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -823,7 +845,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="15" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -845,7 +867,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -853,13 +875,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="15" t="inlineStr">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -867,7 +889,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -875,13 +897,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="15" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -889,7 +911,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -897,13 +919,13 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -911,7 +933,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -919,13 +941,13 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="15" t="inlineStr">
+      <c r="B18" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -933,7 +955,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -941,13 +963,13 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="12" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -955,7 +977,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -963,13 +985,13 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -977,7 +999,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -985,13 +1007,13 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -999,7 +1021,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -1007,13 +1029,13 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -1021,7 +1043,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -1029,17 +1051,17 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="1" t="n"/>
-    </row>
     <row r="23">
-      <c r="B23" s="1" t="n"/>
+      <c r="B23" s="4" t="n"/>
       <c r="C23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1052,7 +1074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1085,10 +1107,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03/12/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>9 8 3 1
+0 7 4 8
+1 6 0 3
+6 5 7 2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 17/4554 (0.37%)
+✅ iBet: 17/237 (7.17%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>30/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>1 2 3 7
 6 3 9 6
@@ -1096,20 +1139,20 @@
 7 4 0 5</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3672 (0.35%)
 ✅ iBet: 13/195 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>29/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>8 3 1 8
 2 7 4 6
@@ -1117,20 +1160,20 @@
 9 6 7 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4176 (0.24%)
 ✅ iBet: 10/220 (4.55%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>26/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>8 9 3 4
 5 2 7 6
@@ -1138,20 +1181,20 @@
 4 3 0 1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 7/4176 (0.17%)
 ✅ iBet: 7/220 (3.18%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>4 7 5 5
 7 3 2 0
@@ -1159,20 +1202,20 @@
 6 2 9 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4176 (0.36%)
 ✅ iBet: 15/220 (6.82%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>8 8 3 2
 5 7 7 4
@@ -1180,20 +1223,20 @@
 3 9 1 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3606 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>2 4 3 1
 8 7 1 3
@@ -1201,20 +1244,20 @@
 4 0 6 6</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3828 (0.24%)
 ✅ iBet: 9/205 (4.39%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>7 1 9 6
 1 4 6 8
@@ -1222,20 +1265,20 @@
 2 8 0 5</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/3672 (0.41%)
 ✅ iBet: 15/195 (7.69%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>8 7 0 1
 9 8 5 9
@@ -1243,20 +1286,20 @@
 1 2 6 3</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4128 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -1264,20 +1307,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -1285,20 +1328,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -1306,20 +1349,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -1327,20 +1370,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1348,20 +1391,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B15" s="14" t="inlineStr">
+      <c r="B16" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1369,20 +1412,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B16" s="14" t="inlineStr">
+      <c r="B17" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1390,20 +1433,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B17" s="14" t="inlineStr">
+      <c r="B18" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1411,20 +1454,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr">
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1432,20 +1475,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1453,20 +1496,20 @@
 5 1 9 7</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4554 (0.26%)
 ✅ iBet: 12/237 (5.06%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>8 6 4 8
 3 7 2 2
@@ -1474,20 +1517,20 @@
 1 4 3 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/4042 (0.32%)
 ✅ iBet: 13/216 (6.02%)</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>1 2 4 2
 2 0 8 6
@@ -1495,20 +1538,20 @@
 5 3 3 7</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4078 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>15/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>7 4 8 3
 0 3 7 2
@@ -1516,20 +1559,20 @@
 5 6 3 4</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>12/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>9 7 7 9
 1 4 0 5
@@ -1537,20 +1580,20 @@
 2 8 3 6</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>11/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>5 8 0 8
 0 2 7 5
@@ -1558,20 +1601,20 @@
 6 0 9 4</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>8/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>4 0 1 9
 8 9 2 4
@@ -1579,20 +1622,20 @@
 0 6 8 7</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4302 (0.23%)
 ✅ iBet: 10/226 (4.42%)</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>5/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>4 2 4 4
 7 8 7 3
@@ -1600,20 +1643,20 @@
 5 1 3 6</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/188 (5.85%)</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>4/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>6 4 9 1
 9 6 3 0
@@ -1621,20 +1664,20 @@
 1 7 5 8</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3446 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>0 5 9 0
 8 0 6 5
@@ -1642,20 +1685,20 @@
 3 2 7 1</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>28/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>5 9 5 8
 4 0 6 4
@@ -1663,20 +1706,20 @@
 1 3 7 2</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/3904 (0.44%)
 ✅ iBet: 17/209 (8.13%)</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>27/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>0 8 8 9
 7 3 6 4
@@ -1684,20 +1727,20 @@
 9 7 5 1</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>24/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>3 0 2 1
 9 1 6 2
@@ -1705,20 +1748,20 @@
 0 3 5 4</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>21/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>6 7 2 5
 4 8 3 3
@@ -1726,20 +1769,20 @@
 8 9 1 0</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3980 (0.23%)
 ✅ iBet: 9/215 (4.19%)</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>20/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>7 6 3 3
 0 9 7 0
@@ -1747,20 +1790,20 @@
 5 8 4 1</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3841 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>17/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>3 7 4 7
 0 2 1 8
@@ -1768,20 +1811,20 @@
 6 1 9 5</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>14/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>5 4 1 4
 8 0 8 5
@@ -1789,20 +1832,20 @@
 3 6 2 0</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4144 (0.36%)
 ✅ iBet: 15/222 (6.76%)</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>13/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>1 2 2 6
 3 6 5 1
@@ -1810,20 +1853,20 @@
 7 3 4 0</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3544 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>10/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>7 4 8 1
 9 2 1 8
@@ -1831,20 +1874,20 @@
 0 9 0 3</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3904 (0.26%)
 ✅ iBet: 10/209 (4.78%)</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>7/9/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>7 3 3 6
 3 0 6 5
@@ -1852,20 +1895,20 @@
 4 6 9 8</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>6/9/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>9 9 4 5
 0 2 1 7
@@ -1873,20 +1916,20 @@
 3 4 8 6</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3841 (0.23%)
 ✅ iBet: 9/209 (4.31%)</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>3/9/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>5 9 8 1
 0 4 1 0
@@ -1894,20 +1937,20 @@
 4 7 6 2</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3872 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>31/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>0 0 0 7
 3 2 7 4
@@ -1915,20 +1958,20 @@
 1 1 6 9</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="60" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>30/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>9 8 6 8
 5 5 2 4
@@ -1936,20 +1979,20 @@
 7 9 9 0</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3904 (0.36%)
 ✅ iBet: 14/209 (6.70%)</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>27/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>6 0 6 5
 3 6 0 1
@@ -1957,20 +2000,20 @@
 8 8 2 9</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4042 (0.27%)
 ✅ iBet: 11/216 (5.09%)</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>24/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>6 1 2 7
 9 6 9 3
@@ -1978,20 +2021,20 @@
 3 9 5 0</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3904 (0.33%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>23/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>2 3 5 0
 0 2 2 6
@@ -1999,20 +2042,20 @@
 5 1 9 8</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3734 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>20/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>8 3 1 3
 3 2 3 2
@@ -2020,20 +2063,20 @@
 6 1 0 9</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3799 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>17/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>4 4 2 6
 5 7 0 7
@@ -2041,20 +2084,20 @@
 3 5 9 8</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="60" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>16/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>5 2 6 5
 2 6 4 4
@@ -2062,20 +2105,20 @@
 7 3 1 8</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3841 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>13/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>3 7 7 7
 0 9 9 0
@@ -2083,20 +2126,20 @@
 5 1 6 4</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4078 (0.34%)
 ✅ iBet: 14/217 (6.45%)</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>10/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>6 9 6 7
 5 4 5 2
@@ -2104,20 +2147,20 @@
 9 0 9 1</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3427 (0.32%)
 ✅ iBet: 11/192 (5.73%)</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>9/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>1 6 8 1
 3 0 5 7
@@ -2125,20 +2168,20 @@
 8 8 9 4</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3427 (0.26%)
 ✅ iBet: 9/192 (4.69%)</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>6/8/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>3 7 9 2
 2 5 3 1
@@ -2146,20 +2189,20 @@
 5 1 5 8</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3784 (0.29%)
 ✅ iBet: 11/204 (5.39%)</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>3/8/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>9 3 2 2
 7 9 8 8
@@ -2167,20 +2210,20 @@
 6 8 4 0</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C54" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3904 (0.31%)
 ✅ iBet: 12/209 (5.74%)</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="60" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>2/8/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>5 8 3 2
 8 3 8 4
@@ -2188,20 +2231,20 @@
 1 4 7 6</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3872 (0.34%)
 ✅ iBet: 13/209 (6.22%)</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="60" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="60" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>30/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>2 1 2 4
 1 8 1 1
@@ -2209,20 +2252,20 @@
 4 5 6 0</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3353 (0.27%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="60" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>27/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>0 7 8 8
 4 6 0 6
@@ -2230,20 +2273,20 @@
 3 2 5 1</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4240 (0.35%)
 ✅ iBet: 15/225 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>26/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>0 3 7 4
 3 9 3 9
@@ -2251,20 +2294,20 @@
 2 8 1 6</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3635 (0.39%)
 ✅ iBet: 14/201 (6.97%)</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>23/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>1 1 5 9
 5 5 4 3
@@ -2272,20 +2315,20 @@
 9 2 7 6</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3464 (0.29%)
 ✅ iBet: 10/192 (5.21%)</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>20/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>2 8 1 9
 9 9 8 4
@@ -2293,20 +2336,20 @@
 4 3 0 6</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4132 (0.34%)
 ✅ iBet: 14/219 (6.39%)</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>19/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>4 6 6 2
 9 8 4 3
@@ -2314,20 +2357,20 @@
 3 0 8 5</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/3828 (0.29%)
 ✅ iBet: 11/205 (5.37%)</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="60" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>16/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>9 1 1 2
 0 3 5 0
@@ -2335,20 +2378,20 @@
 5 6 8 4</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4240 (0.28%)
 ✅ iBet: 12/225 (5.33%)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="60" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>13/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>1 7 1 9
 4 5 9 0
@@ -2356,20 +2399,20 @@
 8 6 3 2</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3814 (0.31%)
 ✅ iBet: 12/208 (5.77%)</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>12/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>1 0 8 9
 3 2 3 6
@@ -2377,20 +2420,20 @@
 5 6 7 2</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4240 (0.24%)
 ✅ iBet: 10/225 (4.44%)</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>9/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>8 7 7 5
 1 3 8 6
@@ -2398,20 +2441,20 @@
 6 9 2 0</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/4042 (0.22%)
 ✅ iBet: 9/216 (4.17%)</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>6/7/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>4 4 6 4
 2 9 1 6
@@ -2419,20 +2462,20 @@
 8 5 5 7</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>5/7/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>0 1 9 2
 4 6 1 9
@@ -2440,20 +2483,20 @@
 3 9 8 5</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3784 (0.32%)
 ✅ iBet: 12/204 (5.88%)</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>2/7/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t>6 4 1 8
 2 5 2 6
@@ -2461,20 +2504,20 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4042 (0.35%)
 ✅ iBet: 14/216 (6.48%)</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="60" customHeight="1">
-      <c r="A68" t="inlineStr">
+    <row r="69" ht="60" customHeight="1">
+      <c r="A69" t="inlineStr">
         <is>
           <t>29/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B68" s="8" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t>6 5 2 6
 4 0 7 9
@@ -2482,20 +2525,20 @@
 1 3 0 8</t>
         </is>
       </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="60" customHeight="1">
-      <c r="A69" t="inlineStr">
+    <row r="70" ht="60" customHeight="1">
+      <c r="A70" t="inlineStr">
         <is>
           <t>28/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B69" s="8" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
         <is>
           <t>3 4 6 0
 4 9 3 6
@@ -2503,20 +2546,20 @@
 0 0 4 8</t>
         </is>
       </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/3980 (0.35%)
 ✅ iBet: 14/215 (6.51%)</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="60" customHeight="1">
-      <c r="A70" t="inlineStr">
+    <row r="71" ht="60" customHeight="1">
+      <c r="A71" t="inlineStr">
         <is>
           <t>25/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B70" s="8" t="inlineStr">
+      <c r="B71" s="8" t="inlineStr">
         <is>
           <t>2 0 5 7
 6 2 8 8
@@ -2524,20 +2567,20 @@
 7 6 1 4</t>
         </is>
       </c>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="C71" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4302 (0.28%)
 ✅ iBet: 12/226 (5.31%)</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="60" customHeight="1">
-      <c r="A71" t="inlineStr">
+    <row r="72" ht="60" customHeight="1">
+      <c r="A72" t="inlineStr">
         <is>
           <t>22/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B71" s="8" t="inlineStr">
+      <c r="B72" s="8" t="inlineStr">
         <is>
           <t>4 1 3 7
 6 2 5 4
@@ -2545,20 +2588,20 @@
 9 5 6 3</t>
         </is>
       </c>
-      <c r="C71" s="1" t="inlineStr">
+      <c r="C72" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4144 (0.27%)
 ✅ iBet: 11/222 (4.95%)</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="60" customHeight="1">
-      <c r="A72" t="inlineStr">
+    <row r="73" ht="60" customHeight="1">
+      <c r="A73" t="inlineStr">
         <is>
           <t>21/6/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B72" s="8" t="inlineStr">
+      <c r="B73" s="8" t="inlineStr">
         <is>
           <t>4 6 1 8
 8 1 0 4
@@ -2566,20 +2609,20 @@
 0 2 9 3</t>
         </is>
       </c>
-      <c r="C72" s="1" t="inlineStr">
+      <c r="C73" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3814 (0.34%)
 ✅ iBet: 13/208 (6.25%)</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="60" customHeight="1">
-      <c r="A73" t="inlineStr">
+    <row r="74" ht="60" customHeight="1">
+      <c r="A74" t="inlineStr">
         <is>
           <t>18/6/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B73" s="8" t="inlineStr">
+      <c r="B74" s="8" t="inlineStr">
         <is>
           <t>2 1 2 1
 3 2 4 7
@@ -2587,20 +2630,20 @@
 5 3 3 8</t>
         </is>
       </c>
-      <c r="C73" s="1" t="inlineStr">
+      <c r="C74" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3416 (0.26%)
 ✅ iBet: 9/188 (4.79%)</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="60" customHeight="1">
-      <c r="A74" t="inlineStr">
+    <row r="75" ht="60" customHeight="1">
+      <c r="A75" t="inlineStr">
         <is>
           <t>15/6/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B74" s="8" t="inlineStr">
+      <c r="B75" s="8" t="inlineStr">
         <is>
           <t>2 9 3 2
 0 2 8 9
@@ -2608,16 +2651,12 @@
 6 7 4 1</t>
         </is>
       </c>
-      <c r="C74" s="1" t="inlineStr">
+      <c r="C75" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3547 (0.34%)
 ✅ iBet: 12/195 (6.15%)</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="1" t="n"/>
@@ -2629,6 +2668,7 @@
     </row>
     <row r="78">
       <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
     </row>
     <row r="79">
       <c r="B79" s="1" t="n"/>
@@ -2704,6 +2744,9 @@
     </row>
     <row r="103">
       <c r="B103" s="1" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2716,7 +2759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2749,28 +2792,28 @@
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03/12/2025 (Wed)</t>
+          <t>06/12/2025 (Sat)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6276 7295 7352 8590 4987</t>
-        </is>
-      </c>
-      <c r="C2" s="23" t="inlineStr"/>
+          <t>6276 7295 9746 7352 8590</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr"/>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/11/2025 (Sun)</t>
+          <t>03/12/2025 (Wed)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6276 7295 7352 8590 1396</t>
-        </is>
-      </c>
-      <c r="C3" s="22" t="inlineStr">
+          <t>6276 7295 7352 8590 4987</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2781,15 +2824,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29/11/2025 (Sat)</t>
+          <t>30/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6276 7295 8590 1396 9223</t>
-        </is>
-      </c>
-      <c r="C4" s="20" t="inlineStr">
+          <t>6276 7295 7352 8590 1396</t>
+        </is>
+      </c>
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2800,7 +2843,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26/11/2025 (Wed)</t>
+          <t>29/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2808,7 +2851,7 @@
           <t>6276 7295 8590 1396 9223</t>
         </is>
       </c>
-      <c r="C5" s="18" t="inlineStr">
+      <c r="C5" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2819,15 +2862,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23/11/2025 (Sun)</t>
+          <t>26/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8590 1396 9223 3378 0316</t>
-        </is>
-      </c>
-      <c r="C6" s="16" t="inlineStr">
+          <t>6276 7295 8590 1396 9223</t>
+        </is>
+      </c>
+      <c r="C6" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2838,15 +2881,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22/11/2025 (Sat)</t>
+          <t>23/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1396 9223 0316 8612 7499</t>
-        </is>
-      </c>
-      <c r="C7" s="22" t="inlineStr">
+          <t>8590 1396 9223 3378 0316</t>
+        </is>
+      </c>
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2857,7 +2900,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19/11/2025 (Wed)</t>
+          <t>22/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2865,7 +2908,7 @@
           <t>1396 9223 0316 8612 7499</t>
         </is>
       </c>
-      <c r="C8" s="20" t="inlineStr">
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2876,15 +2919,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16/11/2025 (Sun)</t>
+          <t>19/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9223 0316 7499 8612 6456</t>
-        </is>
-      </c>
-      <c r="C9" s="18" t="inlineStr">
+          <t>1396 9223 0316 8612 7499</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2895,15 +2938,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15/11/2025 (Sat)</t>
+          <t>16/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9223 0316 8612 7499 6456</t>
-        </is>
-      </c>
-      <c r="C10" s="16" t="inlineStr">
+          <t>9223 0316 7499 8612 6456</t>
+        </is>
+      </c>
+      <c r="C10" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2914,15 +2957,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12/11/2025 (Wed)</t>
+          <t>15/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0316 8612 6456 7499 5548</t>
-        </is>
-      </c>
-      <c r="C11" s="22" t="inlineStr">
+          <t>9223 0316 8612 7499 6456</t>
+        </is>
+      </c>
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2933,15 +2976,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>09/11/2025 (Sun)</t>
+          <t>12/11/2025 (Wed)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0316 6456 8612 5548 0180</t>
-        </is>
-      </c>
-      <c r="C12" s="20" t="inlineStr">
+          <t>0316 8612 6456 7499 5548</t>
+        </is>
+      </c>
+      <c r="C12" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2952,15 +2995,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08/11/2025 (Sat)</t>
+          <t>09/11/2025 (Sun)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0316 8612 5548 0180 8989</t>
-        </is>
-      </c>
-      <c r="C13" s="18" t="inlineStr">
+          <t>0316 6456 8612 5548 0180</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2971,15 +3014,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05/11/2025 (Wed)</t>
+          <t>08/11/2025 (Sat)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0316 8612 5548 8989 4326</t>
-        </is>
-      </c>
-      <c r="C14" s="16" t="inlineStr">
+          <t>0316 8612 5548 0180 8989</t>
+        </is>
+      </c>
+      <c r="C14" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -2990,15 +3033,34 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>05/11/2025 (Wed)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0316 8612 5548 8989 4326</t>
+        </is>
+      </c>
+      <c r="C15" s="16" t="inlineStr">
+        <is>
+          <t>▶ iBet: 0/5 (0.00%) - 
+▶ Direct: 0/5 (0.00%) - 
+▶ Total Sets hit: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>0316 8612 5548 4326 8585</t>
         </is>
       </c>
-      <c r="C15" s="22" t="inlineStr">
+      <c r="C16" s="22" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8612 → 8621 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -3006,18 +3068,18 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>3378 0316 8612 5548 8585</t>
         </is>
       </c>
-      <c r="C16" s="20" t="inlineStr">
+      <c r="C17" s="20" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -3025,18 +3087,18 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Sun - 26/10/2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0316 8612 5548 8585 4178</t>
         </is>
       </c>
-      <c r="C17" s="18" t="inlineStr">
+      <c r="C18" s="18" t="inlineStr">
         <is>
           <t>▶ iBet: 0/5 (0.00%) - 
 ▶ Direct: 0/5 (0.00%) - 
@@ -3044,18 +3106,18 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Sat - 25/10/2025</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>8612 5548 8585 6143 8729</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C19" s="16" t="inlineStr">
         <is>
           <t>▶ iBet: 1/5 (20.00%) - 8729 → 7829 (Consolation)
 ▶ Direct: 0/5 (0.00%) - 
@@ -3063,18 +3125,18 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Wed - 22/10/2025</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>8612 6143 2503 6532 1438</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr">
+      <c r="C20" s="10" t="inlineStr">
         <is>
           <t>▶ iBet: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)
 ▶ Direct: 5/5 (100.00%) - 8612 (1st), 6143 (2nd), 2503 (3rd), 6532 (Starter), 1438 (Starter)

--- a/4d_box_output.xlsx
+++ b/4d_box_output.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -599,10 +599,25 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07/12/2025 (Sun)</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>8 7 2 1
+0 2 1 6
+4 5 9 8
+5 6 0 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>06/12/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>8 7 2 1
 0 2 1 6
@@ -610,14 +625,21 @@
 5 6 3 0</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>▶ iBet: 9/226 (3.98%)
+▶ Direct: 9/4302 (0.21%)
+▶ Total Sets hit: 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>03/12/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>8 7 2 1
 0 2 1 6
@@ -625,7 +647,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/226 (5.75%)
 ▶ Direct: 13/4302 (0.30%)
@@ -633,13 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>30/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>8 7 2 1
 0 2 1 4
@@ -647,7 +669,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/205 (6.34%)
 ▶ Direct: 13/3828 (0.34%)
@@ -655,13 +677,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>29/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>8 7 2 1
 0 2 1 4
@@ -669,7 +691,7 @@
 5 3 0 6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -677,13 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>26/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -691,7 +713,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/226 (3.98%)
 ▶ Direct: 9/4302 (0.21%)
@@ -699,13 +721,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -713,7 +735,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/237 (4.64%)
 ▶ Direct: 11/4554 (0.24%)
@@ -721,13 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>0 4 2 1
 3 2 1 4
@@ -735,7 +757,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 10/237 (4.22%)
 ▶ Direct: 10/4554 (0.22%)
@@ -743,13 +765,13 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -757,7 +779,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 11/226 (4.87%)
 ▶ Direct: 11/4302 (0.26%)
@@ -765,13 +787,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>0 7 2 1
 3 2 1 4
@@ -779,7 +801,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 6/226 (2.65%)
 ▶ Direct: 6/4302 (0.14%)
@@ -787,13 +809,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 1 4
@@ -801,7 +823,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -809,13 +831,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -823,7 +845,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -831,13 +853,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B13" s="15" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>6 4 2 7
 0 2 8 4
@@ -845,7 +867,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 7/226 (3.10%)
 ▶ Direct: 7/4302 (0.16%)
@@ -853,13 +875,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B14" s="15" t="inlineStr">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>0 4 2 7
 3 2 8 4
@@ -867,7 +889,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -875,13 +897,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B15" s="15" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -889,7 +911,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -897,13 +919,13 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -911,7 +933,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/237 (3.38%)
 ▶ Direct: 8/4554 (0.18%)
@@ -919,13 +941,13 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B17" s="15" t="inlineStr">
+      <c r="B18" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -933,7 +955,7 @@
 5 6 3 1</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -941,13 +963,13 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B18" s="15" t="inlineStr">
+      <c r="B19" s="15" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 1 4
@@ -955,7 +977,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 8/226 (3.54%)
 ▶ Direct: 8/4302 (0.19%)
@@ -963,13 +985,13 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="12" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -977,7 +999,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/237 (3.80%)
 ▶ Direct: 9/4554 (0.20%)
@@ -985,13 +1007,13 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>0 4 2 8
 3 2 8 4
@@ -999,7 +1021,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 12/237 (5.06%)
 ▶ Direct: 12/4554 (0.26%)
@@ -1007,13 +1029,13 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>19/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>4 7 2 8
 3 2 8 4
@@ -1021,7 +1043,7 @@
 5 6 3 0</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 13/237 (5.49%)
 ▶ Direct: 13/4554 (0.29%)
@@ -1029,13 +1051,13 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>18/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>1 4 2 9
 0 2 8 6
@@ -1043,7 +1065,7 @@
 5 3 7 8</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>▶ iBet: 9/195 (4.62%)
 ▶ Direct: 9/3672 (0.25%)
@@ -1051,17 +1073,17 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="1" t="n"/>
-    </row>
     <row r="24">
-      <c r="B24" s="1" t="n"/>
+      <c r="B24" s="4" t="n"/>
       <c r="C24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1074,7 +1096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1107,10 +1129,31 @@
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06/12/2025 (Sat)</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>8 8 7 5
+1 7 4 3
+3 4 1 9
+0 2 0 6</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>✅ Direct: 10/3864 (0.26%)
+✅ iBet: 10/208 (4.81%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>03/12/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>9 8 3 1
 0 7 4 8
@@ -1118,20 +1161,20 @@
 6 5 7 2</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 17/4554 (0.37%)
 ✅ iBet: 17/237 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>30/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>1 2 3 7
 6 3 9 6
@@ -1139,20 +1182,20 @@
 7 4 0 5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3672 (0.35%)
 ✅ iBet: 13/195 (6.67%)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>29/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>8 3 1 8
 2 7 4 6
@@ -1160,20 +1203,20 @@
 9 6 7 0</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4176 (0.24%)
 ✅ iBet: 10/220 (4.55%)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>26/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>8 9 3 4
 5 2 7 6
@@ -1181,20 +1224,20 @@
 4 3 0 1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 7/4176 (0.17%)
 ✅ iBet: 7/220 (3.18%)</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>23/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>4 7 5 5
 7 3 2 0
@@ -1202,20 +1245,20 @@
 6 2 9 1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/4176 (0.36%)
 ✅ iBet: 15/220 (6.82%)</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>22/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>8 8 3 2
 5 7 7 4
@@ -1223,20 +1266,20 @@
 3 9 1 6</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3606 (0.28%)
 ✅ iBet: 10/196 (5.10%)</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>19/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>2 4 3 1
 8 7 1 3
@@ -1244,20 +1287,20 @@
 4 0 6 6</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 9/3828 (0.24%)
 ✅ iBet: 9/205 (4.39%)</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>16/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>7 1 9 6
 1 4 6 8
@@ -1265,20 +1308,20 @@
 2 8 0 5</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 15/3672 (0.41%)
 ✅ iBet: 15/195 (7.69%)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>15/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>8 7 0 1
 9 8 5 9
@@ -1286,20 +1329,20 @@
 1 2 6 3</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 11/4128 (0.27%)
 ✅ iBet: 11/217 (5.07%)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>12/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>8 7 2 6
 3 8 1 3
@@ -1307,20 +1350,20 @@
 9 2 0 5</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 14/4302 (0.33%)
 ✅ iBet: 14/226 (6.19%)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>09/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>0 8 4 9
 9 5 1 7
@@ -1328,20 +1371,20 @@
 4 2 3 3</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4212 (0.24%)
 ✅ iBet: 10/223 (4.48%)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>08/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>6 4 6 7
 0 2 0 5
@@ -1349,20 +1392,20 @@
 7 3 8 1</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 16/4212 (0.38%)
 ✅ iBet: 16/223 (7.17%)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>05/11/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>0 3 4 7
 2 7 8 1
@@ -1370,20 +1413,20 @@
 4 8 0 6</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4176 (0.29%)
 ✅ iBet: 12/220 (5.45%)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>02/11/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B15" s="14" t="inlineStr">
+      <c r="B16" s="14" t="inlineStr">
         <is>
           <t>8 5 8 4
 0 2 6 7
@@ -1391,20 +1434,20 @@
 5 6 1 3</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 13/3703 (0.35%)
 ✅ iBet: 13/204 (6.37%)</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>01/11/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B16" s="14" t="inlineStr">
+      <c r="B17" s="14" t="inlineStr">
         <is>
           <t>9 3 2 3
 4 6 4 5
@@ -1412,20 +1455,20 @@
 0 2 7 1</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/3818 (0.26%)
 ✅ iBet: 10/208 (4.81%)</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>29/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B17" s="14" t="inlineStr">
+      <c r="B18" s="14" t="inlineStr">
         <is>
           <t>3 0 5 1
 5 4 8 8
@@ -1433,20 +1476,20 @@
 6 7 7 9</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/4132 (0.29%)
 ✅ iBet: 12/219 (5.48%)</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>26/10/2025 (Sun)</t>
         </is>
       </c>
-      <c r="B18" s="14" t="inlineStr">
+      <c r="B19" s="14" t="inlineStr">
         <is>
           <t>7 8 4 8
 0 3 1 9
@@ -1454,20 +1497,20 @@
 4 9 5 2</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 10/4128 (0.24%)
 ✅ iBet: 10/217 (4.61%)</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>25/10/2025 (Sat)</t>
         </is>
       </c>
-      <c r="B19" s="11" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>8 4 9 5
 6 8 7 8
@@ -1475,20 +1518,20 @@
 1 2 3 0</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>✅ Direct: 12/3980 (0.30%)
 ✅ iBet: 12/215 (5.58%)</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>22/10/2025 (Wed)</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>0 6 4 2
 8 2 5 3
@@ -1496,20 +1539,20 @@
 5 1 9 7</t>
         </is>
    